--- a/examples/excel/collab_filter.xlsx
+++ b/examples/excel/collab_filter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j\Google Drive\Docs\fastai\course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ml\fast-ai\examples\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D13351-C04A-4457-BF4C-4DC738DFEFA3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="0" windowWidth="21420" windowHeight="11378"/>
+    <workbookView xWindow="8490" yWindow="0" windowWidth="21420" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dotprod" sheetId="1" r:id="rId1"/>
@@ -100,7 +101,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
     <pivotCache cacheId="1" r:id="rId6"/>
@@ -254,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -894,7 +895,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jeremy Howard" refreshedDate="42697.407696527778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="206">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeremy Howard" refreshedDate="42697.407696527778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="206" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="I2:K208" sheet="movielens_emb"/>
   </cacheSource>
@@ -950,7 +951,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jeremy Howard" refreshedDate="42697.462273958336" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeremy Howard" refreshedDate="42697.462273958336" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="48" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="I2:I50" sheet="word_emb"/>
   </cacheSource>
@@ -2179,7 +2180,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B21:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -2297,12 +2298,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2401,12 +2405,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="1" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="1" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -2485,20 +2492,23 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A25:G39" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A25:G39" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="Word id"/>
-    <tableColumn id="2" name="Vocab" dataDxfId="5"/>
-    <tableColumn id="3" name="Embeddings" dataDxfId="4"/>
-    <tableColumn id="4" name="1" dataDxfId="3"/>
-    <tableColumn id="5" name="2" dataDxfId="2"/>
-    <tableColumn id="6" name="3" dataDxfId="1"/>
-    <tableColumn id="7" name="4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Word id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vocab" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Embeddings" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="1" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="3" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2800,25 +2810,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.06640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="22" width="5.9296875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="6" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2878,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G3" s="2">
         <v>29</v>
       </c>
@@ -2971,7 +2981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G4" s="2">
         <v>72</v>
       </c>
@@ -3021,7 +3031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G5" s="2">
         <v>211</v>
       </c>
@@ -3067,7 +3077,7 @@
       </c>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G6" s="2">
         <v>212</v>
       </c>
@@ -3111,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G7" s="2">
         <v>293</v>
       </c>
@@ -3155,7 +3165,7 @@
       </c>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G8" s="2">
         <v>310</v>
       </c>
@@ -3205,7 +3215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G9" s="2">
         <v>379</v>
       </c>
@@ -3251,7 +3261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G10" s="2">
         <v>451</v>
       </c>
@@ -3301,7 +3311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G11" s="2">
         <v>467</v>
       </c>
@@ -3347,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G12" s="2">
         <v>508</v>
       </c>
@@ -3397,7 +3407,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G13" s="2">
         <v>546</v>
       </c>
@@ -3441,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G14" s="2">
         <v>563</v>
       </c>
@@ -3489,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G15" s="2">
         <v>579</v>
       </c>
@@ -3539,7 +3549,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G16" s="2">
         <v>623</v>
       </c>
@@ -3583,254 +3593,254 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H19" s="4">
-        <v>0.70887347964002279</v>
+        <v>-1.6857405495304201</v>
       </c>
       <c r="I19" s="4">
-        <v>0.92208169012260022</v>
+        <v>1.4914432952562398</v>
       </c>
       <c r="J19" s="4">
-        <v>0.67803256499882025</v>
+        <v>-0.1396988282494237</v>
       </c>
       <c r="K19" s="4">
-        <v>0.83084601139571868</v>
+        <v>1.9483436551859907</v>
       </c>
       <c r="L19" s="4">
-        <v>0.59932967115034896</v>
+        <v>-9.4971252107842616E-2</v>
       </c>
       <c r="M19" s="4">
-        <v>0.18454370825562072</v>
+        <v>1.7994136115077934</v>
       </c>
       <c r="N19" s="4">
-        <v>0.25660936632964604</v>
+        <v>1.7387081046993125</v>
       </c>
       <c r="O19" s="4">
-        <v>0.90765891281653743</v>
+        <v>0.67516752257575718</v>
       </c>
       <c r="P19" s="4">
-        <v>0.98846160233790925</v>
+        <v>0.2177224023375981</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.52251153312610665</v>
+        <v>1.9204901656018543</v>
       </c>
       <c r="R19" s="4">
-        <v>0.90808989630693726</v>
+        <v>1.8735439419695032</v>
       </c>
       <c r="S19" s="4">
-        <v>0.52670576370113764</v>
+        <v>1.6855897800989401</v>
       </c>
       <c r="T19" s="4">
-        <v>0.22540308338638937</v>
+        <v>-1.162066312825117</v>
       </c>
       <c r="U19" s="4">
-        <v>0.74768814373129733</v>
+        <v>1.6632584546517004</v>
       </c>
       <c r="V19" s="4">
-        <v>0.42820605638239884</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+        <v>1.3470437181049575</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="4">
-        <v>0.80732098050743839</v>
+        <v>1.0071183871916407</v>
       </c>
       <c r="I20" s="4">
-        <v>0.55325174186517134</v>
+        <v>0.12207509627890435</v>
       </c>
       <c r="J20" s="4">
-        <v>0.27915924515202117</v>
+        <v>1.3644439460431255</v>
       </c>
       <c r="K20" s="4">
-        <v>0.87918207314730823</v>
+        <v>1.4926768092312415</v>
       </c>
       <c r="L20" s="4">
-        <v>0.49654136417949202</v>
+        <v>1.1743473812531937</v>
       </c>
       <c r="M20" s="4">
-        <v>0.30559562318963418</v>
+        <v>0.72995496026664508</v>
       </c>
       <c r="N20" s="4">
-        <v>7.5002112656580744E-2</v>
+        <v>-0.19855798441134595</v>
       </c>
       <c r="O20" s="4">
-        <v>0.46577743872948962</v>
+        <v>-6.6167589199235318E-3</v>
       </c>
       <c r="P20" s="4">
-        <v>0.93790945654705848</v>
+        <v>2.0600117374126037</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.70483803055583816</v>
+        <v>1.3987647991628116</v>
       </c>
       <c r="R20" s="4">
-        <v>0.10707685921898569</v>
+        <v>1.2346261495877318</v>
       </c>
       <c r="S20" s="4">
-        <v>0.87415712597855144</v>
+        <v>0.91365904724561442</v>
       </c>
       <c r="T20" s="4">
-        <v>0.19523037372604934</v>
+        <v>1.9312377383805577</v>
       </c>
       <c r="U20" s="4">
-        <v>0.4679861048768994</v>
+        <v>0.66418293481052104</v>
       </c>
       <c r="V20" s="4">
-        <v>0.80742452867520764</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+        <v>8.0509284258593661E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="4">
-        <v>0.73595692274006186</v>
+        <v>0.82223836748919732</v>
       </c>
       <c r="I21" s="4">
-        <v>0.86446490687236854</v>
+        <v>1.4839111097584035</v>
       </c>
       <c r="J21" s="4">
-        <v>0.52913803665966974</v>
+        <v>1.5302004004888565E-2</v>
       </c>
       <c r="K21" s="4">
-        <v>0.33369737414270795</v>
+        <v>0.53326150491428559</v>
       </c>
       <c r="L21" s="4">
-        <v>0.80763402528493977</v>
+        <v>1.0673338955113434</v>
       </c>
       <c r="M21" s="4">
-        <v>0.67820043455746115</v>
+        <v>1.235157069662236</v>
       </c>
       <c r="N21" s="4">
-        <v>0.91765238834609264</v>
+        <v>1.643532194666649</v>
       </c>
       <c r="O21" s="4">
-        <v>0.60802374479101795</v>
+        <v>0.95109265978440183</v>
       </c>
       <c r="P21" s="4">
-        <v>0.4645090314715955</v>
+        <v>0.42610087670860752</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.64434219349983601</v>
+        <v>0.81730690720925425</v>
       </c>
       <c r="R21" s="4">
-        <v>0.2378704938461359</v>
+        <v>0.42319374211574978</v>
       </c>
       <c r="S21" s="4">
-        <v>0.24970204552226793</v>
+        <v>0.70570798371005616</v>
       </c>
       <c r="T21" s="4">
-        <v>0.82929794962267667</v>
+        <v>0.98987183024831571</v>
       </c>
       <c r="U21" s="4">
-        <v>5.1213853463865977E-2</v>
+        <v>0.57133354005715187</v>
       </c>
       <c r="V21" s="4">
-        <v>0.17370394356127128</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+        <v>1.4723840556616736</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H22" s="4">
-        <v>3.9224256210796504E-2</v>
+        <v>1.8850374854194634</v>
       </c>
       <c r="I22" s="4">
-        <v>0.43719998766225321</v>
+        <v>0.50109311680926427</v>
       </c>
       <c r="J22" s="4">
-        <v>0.15864237517561763</v>
+        <v>1.7354672184972419</v>
       </c>
       <c r="K22" s="4">
-        <v>0.40598126591759665</v>
+        <v>0.40572088287609309</v>
       </c>
       <c r="L22" s="4">
-        <v>0.73429166236685783</v>
+        <v>1.5685284090440552</v>
       </c>
       <c r="M22" s="4">
-        <v>0.39452317048392171</v>
+        <v>0.48868221204438106</v>
       </c>
       <c r="N22" s="4">
-        <v>0.2905017768425352</v>
+        <v>0.1970622360463743</v>
       </c>
       <c r="O22" s="4">
-        <v>0.94457474857944312</v>
+        <v>1.5368574447333136</v>
       </c>
       <c r="P22" s="4">
-        <v>0.12450793631795276</v>
+        <v>0.42709138509384548</v>
       </c>
       <c r="Q22" s="4">
-        <v>0.66980422533481132</v>
+        <v>-0.22034319007196504</v>
       </c>
       <c r="R22" s="4">
-        <v>0.53909003888148166</v>
+        <v>0.24773369001245549</v>
       </c>
       <c r="S22" s="4">
-        <v>0.57026154541157914</v>
+        <v>0.19102196953193859</v>
       </c>
       <c r="T22" s="4">
-        <v>0.53281160278279249</v>
+        <v>1.3949277383381824</v>
       </c>
       <c r="U22" s="4">
-        <v>0.9110223307540235</v>
+        <v>0.46227936802509773</v>
       </c>
       <c r="V22" s="4">
-        <v>0.29870015708068542</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+        <v>0.71971024860023869</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <v>4.1267334493559793E-2</v>
+        <v>2.3917333906274831</v>
       </c>
       <c r="I23" s="4">
-        <v>0.79836760564861708</v>
+        <v>1.1265361637945597</v>
       </c>
       <c r="J23" s="4">
-        <v>0.94102756949451583</v>
+        <v>1.149068290239418</v>
       </c>
       <c r="K23" s="4">
-        <v>0.24111796613871128</v>
+        <v>-0.74222806038219957</v>
       </c>
       <c r="L23" s="4">
-        <v>0.53207837601856678</v>
+        <v>1.1360449022448689</v>
       </c>
       <c r="M23" s="4">
-        <v>8.7173240154346687E-2</v>
+        <v>-0.63458377779059483</v>
       </c>
       <c r="N23" s="4">
-        <v>0.73713634034840836</v>
+        <v>0.89736337409389044</v>
       </c>
       <c r="O23" s="4">
-        <v>0.12875021542842269</v>
+        <v>1.2446222835061145</v>
       </c>
       <c r="P23" s="4">
-        <v>0.3900437621368037</v>
+        <v>1.1144773442191098</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.44242131213666558</v>
+        <v>0.19035322138084523</v>
       </c>
       <c r="R23" s="4">
-        <v>0.80815465087438321</v>
+        <v>0.43222764614671111</v>
       </c>
       <c r="S23" s="4">
-        <v>0.79919473013680231</v>
+        <v>0.42586950991323053</v>
       </c>
       <c r="T23" s="4">
-        <v>0.22510283988543101</v>
+        <v>1.1101059889746769</v>
       </c>
       <c r="U23" s="4">
-        <v>0.58599252264810708</v>
+        <v>0.46760677914286375</v>
       </c>
       <c r="V23" s="4">
-        <v>0.28815103814999543</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+        <v>0.90335733744206215</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
@@ -3880,300 +3890,300 @@
         <v>505</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
-        <v>0.19116638616919113</v>
+        <v>0.20602569740008589</v>
       </c>
       <c r="C25" s="4">
-        <v>0.63288592494215667</v>
+        <v>1.6124775823689446</v>
       </c>
       <c r="D25" s="4">
-        <v>0.31141248045021541</v>
+        <v>2.894442456390816</v>
       </c>
       <c r="E25" s="4">
-        <v>0.43529612082458324</v>
+        <v>-1.2584775373501331</v>
       </c>
       <c r="F25" s="4">
-        <v>0.51314918534897425</v>
+        <v>0.82372047104256629</v>
       </c>
       <c r="G25" s="2">
         <v>14</v>
       </c>
       <c r="H25" s="5">
         <f>IF(H2="",0,MMULT($B25:$F25,H$19:H$23))</f>
-        <v>0.91389150329029523</v>
+        <v>3.2544140125922167</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" ref="I25:V25" si="0">IF(I2="",0,MMULT($B25:$F25,I$19:I$23))</f>
-        <v>1.395614570842538</v>
+        <v>5.0965507866099626</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="0"/>
-        <v>1.0230171219161681</v>
+        <v>0.97810905894690636</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="0"/>
-        <v>1.1196208740979721</v>
+        <v>3.2298324280724131</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="0"/>
-        <v>1.2730029403863956</v>
+        <v>3.9252045225741687</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="0"/>
-        <v>0.65635308486258825</v>
+        <v>3.985137281414656</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="0"/>
-        <v>0.88700648219871581</v>
+        <v>5.2863357975511382</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" si="0"/>
-        <v>1.1348818339489835</v>
+        <v>1.972435740049413</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="0"/>
-        <v>1.1815526964688525</v>
+        <v>4.980436512436766</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="0"/>
-        <v>1.2652162280628101</v>
+        <v>5.4508898198968341</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="0"/>
-        <v>0.96480724482746161</v>
+        <v>3.6459825966854624</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="0"/>
-        <v>1.3900292752885111</v>
+        <v>3.9735612669638756</v>
       </c>
       <c r="T25" s="5">
         <f t="shared" si="0"/>
-        <v>0.77234394278768592</v>
+        <v>4.8987208919147847</v>
       </c>
       <c r="U25" s="5">
         <f t="shared" si="0"/>
-        <v>1.1523293645836161</v>
+        <v>2.8707552068899242</v>
       </c>
       <c r="V25" s="5">
         <f t="shared" si="0"/>
-        <v>0.92484729006542488</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+        <v>4.5074507105640294</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
-        <v>0.25247970905003203</v>
+        <v>1.5535640136184534</v>
       </c>
       <c r="C26" s="4">
-        <v>0.83490522957045965</v>
+        <v>0.75090925115377827</v>
       </c>
       <c r="D26" s="4">
-        <v>0.71476435674432515</v>
+        <v>0.22429599869720107</v>
       </c>
       <c r="E26" s="4">
-        <v>0.96203587548127156</v>
+        <v>1.6220577017308828</v>
       </c>
       <c r="F26" s="4">
-        <v>0.58509291322559598</v>
+        <v>1.2627085615623141</v>
       </c>
       <c r="G26" s="2">
         <v>29</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" ref="H26:V26" si="1">IF(H3="",0,MMULT($B26:$F26,H$19:H$23))</f>
-        <v>1.440928821557989</v>
+        <v>4.3994752363004075</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="1"/>
-        <v>2.2003296935883347</v>
+        <v>4.9768440836728232</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="1"/>
-        <v>1.4856782051513695</v>
+        <v>5.0769410234919325</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="1"/>
-        <v>1.7139654146393988</v>
+        <v>3.9882347920505867</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="1"/>
-        <v>2.1608817865689653</v>
+        <v>4.9524203257427137</v>
       </c>
       <c r="M26" s="5">
         <f t="shared" si="1"/>
-        <v>1.2170403118038156</v>
+        <v>3.6120513300320676</v>
       </c>
       <c r="N26" s="5">
         <f t="shared" si="1"/>
-        <v>1.4940799133398008</v>
+        <v>4.373487742256561</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" si="1"/>
-        <v>2.0366848122971661</v>
+        <v>5.3217403267184409</v>
       </c>
       <c r="P26" s="5">
         <f t="shared" si="1"/>
-        <v>1.7126394495759572</v>
+        <v>4.080727236772935</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="1"/>
-        <v>2.0841826197424784</v>
+        <v>4.1002197805397937</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="1"/>
-        <v>1.4801641695966348</v>
+        <v>4.8802991958450281</v>
       </c>
       <c r="S26" s="5">
         <f t="shared" si="1"/>
-        <v>2.0575142338490973</v>
+        <v>4.3106318652115361</v>
       </c>
       <c r="T26" s="5">
         <f t="shared" si="1"/>
-        <v>1.4569511335323349</v>
+        <v>3.5312577874810622</v>
       </c>
       <c r="U26" s="5">
         <f t="shared" si="1"/>
-        <v>1.8354022060995003</v>
+        <v>4.5511623103822023</v>
       </c>
       <c r="V26" s="5">
         <f t="shared" si="1"/>
-        <v>1.36234908697048</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+        <v>4.7915122596975737</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
-        <v>0.2960607456149863</v>
+        <v>1.5044251481816413</v>
       </c>
       <c r="C27" s="4">
-        <v>0.43690558422581305</v>
+        <v>1.1710754973605022</v>
       </c>
       <c r="D27" s="4">
-        <v>0.1884192420809051</v>
+        <v>0.22310072402747516</v>
       </c>
       <c r="E27" s="4">
-        <v>7.7546787124316285E-4</v>
+        <v>1.0832032487736378</v>
       </c>
       <c r="F27" s="4">
-        <v>0.72383774333971329</v>
+        <v>1.4901597754146985</v>
       </c>
       <c r="G27" s="2">
         <v>72</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ref="H27:V27" si="2">IF(H4="",0,MMULT($B27:$F27,H$19:H$23))</f>
-        <v>0.73116237258607963</v>
+        <v>4.4327267857640003</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="2"/>
-        <v>1.255820431329572</v>
+        <v>4.9392901664425874</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="2"/>
-        <v>1.1036791420518983</v>
+        <v>4.9832734050512846</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="2"/>
-        <v>0.86782056317124923</v>
+        <v>4.1315852354343328</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="2"/>
-        <v>0.93226130561144482</v>
+        <v>4.8624187532778897</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" si="2"/>
-        <v>0.37934381548559387</v>
+        <v>3.4211908337171186</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="2"/>
-        <v>0.81543654960760814</v>
+        <v>4.3005762886012207</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="2"/>
-        <v>0.6807130644003021</v>
+        <v>4.7395947764731954</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="2"/>
-        <v>1.0723699462063316</v>
+        <v>4.9584158262837779</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="2"/>
-        <v>0.90480994919347069</v>
+        <v>4.7546149018791928</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="2"/>
-        <v>0.94584251344737025</v>
+        <v>5.2712960749371209</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="2"/>
-        <v>1.1638392305731298</v>
+        <v>4.6047805712199743</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="2"/>
-        <v>0.47163704647126298</v>
+        <v>3.8994500813387631</v>
       </c>
       <c r="U27" s="5">
         <f t="shared" si="2"/>
-        <v>0.8603465010901179</v>
+        <v>4.6050724605490023</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" si="2"/>
-        <v>0.72107868471123793</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+        <v>4.5750380907284445</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
-        <v>1.5234780548209481E-2</v>
+        <v>0.47116188164224576</v>
       </c>
       <c r="C28" s="4">
-        <v>0.72262898121854457</v>
+        <v>0.88663094599493841</v>
       </c>
       <c r="D28" s="4">
-        <v>0.6877386777736082</v>
+        <v>1.3245577535156996</v>
       </c>
       <c r="E28" s="4">
-        <v>0.35476944354682138</v>
+        <v>1.1295494929459176</v>
       </c>
       <c r="F28" s="4">
-        <v>0.24638153472855184</v>
+        <v>0.77246858381594063</v>
       </c>
       <c r="G28" s="2">
         <v>211</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ref="H28:V28" si="3">IF(H5="",0,MMULT($B28:$F28,H$19:H$23))</f>
-        <v>1.1244221872589137</v>
+        <v>5.1645698849460544</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="3"/>
-        <v>1.3601776391109222</v>
+        <v>4.2126960244848295</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="3"/>
-        <v>0.8641002159042217</v>
+        <v>4.0121211234519398</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="3"/>
-        <v>1.0809135556943499</v>
+        <v>2.8327083339406025</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="3"/>
-        <v>1.3149855241586306</v>
+        <v>5.0595007485072037</v>
       </c>
       <c r="M28" s="5">
         <f t="shared" si="3"/>
-        <v>0.85151104923063092</v>
+        <v>3.1928473461203897</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" si="3"/>
-        <v>0.97389106441686413</v>
+        <v>3.7358952038412276</v>
       </c>
       <c r="O28" s="5">
         <f t="shared" si="3"/>
-        <v>1.1354016402863871</v>
+        <v>4.2694118941236372</v>
       </c>
       <c r="P28" s="5">
         <f t="shared" si="3"/>
-        <v>1.152551569781211</v>
+        <v>3.8367674655462989</v>
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="3"/>
@@ -4181,47 +4191,47 @@
       </c>
       <c r="R28" s="5">
         <f t="shared" si="3"/>
-        <v>0.64517118719294142</v>
+        <v>3.1516545339998179</v>
       </c>
       <c r="S28" s="5">
         <f t="shared" si="3"/>
-        <v>1.210663470019018</v>
+        <v>3.0837546054250486</v>
       </c>
       <c r="T28" s="5">
         <f t="shared" si="3"/>
-        <v>0.95933982692998543</v>
+        <v>4.9090781208448657</v>
       </c>
       <c r="U28" s="5">
         <f t="shared" si="3"/>
-        <v>0.85237355725463315</v>
+        <v>3.0126923695014183</v>
       </c>
       <c r="V28" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
-        <v>0.60438923001101774</v>
+        <v>0.31027628997539758</v>
       </c>
       <c r="C29" s="4">
-        <v>0.87465044808684067</v>
+        <v>2.101559767778713</v>
       </c>
       <c r="D29" s="4">
-        <v>0.76171708240679092</v>
+        <v>1.4730740504922506</v>
       </c>
       <c r="E29" s="4">
-        <v>0.29799249902059644</v>
+        <v>-0.28785394259929215</v>
       </c>
       <c r="F29" s="4">
-        <v>3.5005233984611639E-2</v>
+        <v>-0.14892074718683804</v>
       </c>
       <c r="G29" s="2">
         <v>212</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ref="H29:V29" si="4">IF(H6="",0,MMULT($B29:$F29,H$19:H$23))</f>
-        <v>1.7082832206825902</v>
+        <v>1.905897967080795</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="4"/>
@@ -4229,11 +4239,11 @@
       </c>
       <c r="J29" s="5">
         <f t="shared" si="4"/>
-        <v>1.1372309483019643</v>
+        <v>2.1759750638230351</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="4"/>
-        <v>1.6547341283610943</v>
+        <v>4.5207528561249779</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="4"/>
@@ -4241,11 +4251,11 @@
       </c>
       <c r="M29" s="5">
         <f t="shared" si="4"/>
-        <v>1.0160388999531427</v>
+        <v>3.8656707728243522</v>
       </c>
       <c r="N29" s="5">
         <f t="shared" si="4"/>
-        <v>1.0320550492104243</v>
+        <v>2.3528818898266142</v>
       </c>
       <c r="O29" s="5">
         <f t="shared" si="4"/>
@@ -4253,55 +4263,55 @@
       </c>
       <c r="P29" s="5">
         <f t="shared" si="4"/>
-        <v>1.8223389416195046</v>
+        <v>4.735561294238174</v>
       </c>
       <c r="Q29" s="5">
         <f t="shared" si="4"/>
-        <v>1.6381773946497591</v>
+        <v>4.7745030983505101</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="4"/>
-        <v>1.0126190252015066</v>
+        <v>3.6636738440789873</v>
       </c>
       <c r="S29" s="5">
         <f t="shared" si="4"/>
-        <v>1.4710291880276212</v>
+        <v>3.3642605239032295</v>
       </c>
       <c r="T29" s="5">
         <f t="shared" si="4"/>
-        <v>1.1053335831033826</v>
+        <v>4.5893511527433759</v>
       </c>
       <c r="U29" s="5">
         <f t="shared" si="4"/>
-        <v>1.1922200112199157</v>
+        <v>2.5508011192486713</v>
       </c>
       <c r="V29" s="5">
         <f t="shared" si="4"/>
-        <v>1.1964278163768021</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
+        <v>2.4143814625152613</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
-        <v>0.73399911522134131</v>
+        <v>0.99920085291688654</v>
       </c>
       <c r="C30" s="4">
-        <v>0.69952859907524867</v>
+        <v>1.4481749884795914</v>
       </c>
       <c r="D30" s="4">
-        <v>0.43713443683946274</v>
+        <v>0.36607828360894074</v>
       </c>
       <c r="E30" s="4">
-        <v>0.47080867927227443</v>
+        <v>0.82566549229391217</v>
       </c>
       <c r="F30" s="4">
-        <v>0.2897625199660725</v>
+        <v>0.67160645595547508</v>
       </c>
       <c r="G30" s="2">
         <v>293</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ref="H30:V30" si="5">IF(H7="",0,MMULT($B30:$F30,H$19:H$23))</f>
-        <v>1.4371935834153349</v>
+        <v>3.2378078636303602</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="5"/>
@@ -4309,19 +4319,19 @@
       </c>
       <c r="J30" s="5">
         <f t="shared" si="5"/>
-        <v>1.2716243631733801</v>
+        <v>4.0466052162446093</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="5"/>
-        <v>1.6317303080245245</v>
+        <v>4.1401638948328099</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="5"/>
-        <v>1.6401842368471455</v>
+        <v>4.0545477813483854</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="5"/>
-        <v>0.85669703235579464</v>
+        <v>3.2845397887671357</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="5"/>
@@ -4329,151 +4339,151 @@
       </c>
       <c r="O30" s="5">
         <f t="shared" si="5"/>
-        <v>1.7398545721109859</v>
+        <v>3.118046627613829</v>
       </c>
       <c r="P30" s="5">
         <f t="shared" si="5"/>
-        <v>1.7563168040938459</v>
+        <v>4.4579169599215795</v>
       </c>
       <c r="Q30" s="5">
         <f t="shared" si="5"/>
-        <v>1.6017882819769342</v>
+        <v>4.1897226020609404</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="5"/>
-        <v>1.3334030874960139</v>
+        <v>4.3097554902132789</v>
       </c>
       <c r="S30" s="5">
         <f t="shared" si="5"/>
-        <v>1.6073136012761129</v>
+        <v>3.7094622543326046</v>
       </c>
       <c r="T30" s="5">
         <f t="shared" si="5"/>
-        <v>0.98060827892755453</v>
+        <v>3.8953011659995807</v>
       </c>
       <c r="U30" s="5">
         <f t="shared" si="5"/>
-        <v>1.4972753296574273</v>
+        <v>3.5286710358877658</v>
       </c>
       <c r="V30" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
-        <v>0.22945716084719503</v>
+        <v>1.1561958763348434</v>
       </c>
       <c r="C31" s="4">
-        <v>0.81023909007570105</v>
+        <v>1.1552099113480661</v>
       </c>
       <c r="D31" s="4">
-        <v>0.35833840816792584</v>
+        <v>0.18723754146183572</v>
       </c>
       <c r="E31" s="4">
-        <v>0.47140327642362567</v>
+        <v>2.1642465240448137</v>
       </c>
       <c r="F31" s="4">
-        <v>0.12055884454473664</v>
+        <v>-3.2768128340707657E-2</v>
       </c>
       <c r="G31" s="2">
         <v>310</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ref="H31:V31" si="6">IF(H8="",0,MMULT($B31:$F31,H$19:H$23))</f>
-        <v>1.1039663299153142</v>
+        <v>3.3696539600838404</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="6"/>
-        <v>1.271963195937327</v>
+        <v>3.1908413715333057</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="6"/>
-        <v>0.75960937376290427</v>
+        <v>5.1358911484259799</v>
       </c>
       <c r="K31" s="5">
         <f t="shared" si="6"/>
-        <v>1.2430176380107623</v>
+        <v>4.9792699522465806</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="6"/>
-        <v>1.2395382485645665</v>
+        <v>4.8041134306278899</v>
       </c>
       <c r="M31" s="5">
         <f t="shared" si="6"/>
-        <v>0.72946467945033633</v>
+        <v>4.2334164768797287</v>
       </c>
       <c r="N31" s="5">
         <f t="shared" si="6"/>
-        <v>0.67429239112365169</v>
+        <v>2.4857282578500985</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" si="6"/>
-        <v>1.2643357946375298</v>
+        <v>4.236416851267272</v>
       </c>
       <c r="P31" s="5">
         <f t="shared" si="6"/>
-        <v>1.2589085988482884</v>
+        <v>3.5990695098811458</v>
       </c>
       <c r="Q31" s="5">
         <f t="shared" si="6"/>
-        <v>1.2909596019418852</v>
+        <v>3.5062458035753186</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="6"/>
-        <v>0.73192272203625208</v>
+        <v>4.1936673870032166</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="6"/>
-        <v>1.2837836711424464</v>
+        <v>3.5359386545918365</v>
       </c>
       <c r="T31" s="5">
         <f t="shared" si="6"/>
-        <v>0.78538021263635072</v>
+        <v>4.0553412789622234</v>
       </c>
       <c r="U31" s="5">
         <f t="shared" si="6"/>
-        <v>1.0692004182244566</v>
+        <v>3.7824622796177216</v>
       </c>
       <c r="V31" s="5">
         <f t="shared" si="6"/>
-        <v>0.99025404493173486</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
+        <v>3.4541661605981457</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
-        <v>0.68397294881563286</v>
+        <v>0.79213009726092887</v>
       </c>
       <c r="C32" s="4">
-        <v>0.90480789774536852</v>
+        <v>1.0680674270345278</v>
       </c>
       <c r="D32" s="4">
-        <v>0.1979778360916481</v>
+        <v>1.3014392774477659</v>
       </c>
       <c r="E32" s="4">
-        <v>0.91925443419950825</v>
+        <v>1.2935609024880383</v>
       </c>
       <c r="F32" s="4">
-        <v>0.74265244013530618</v>
+        <v>0.69807750238115185</v>
       </c>
       <c r="G32" s="2">
         <v>379</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ref="H32:V32" si="7">IF(H9="",0,MMULT($B32:$F32,H$19:H$23))</f>
-        <v>1.4277282005154697</v>
+        <v>4.9184638884995078</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="7"/>
-        <v>2.2972180475132298</v>
+        <v>4.6776257749728627</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="7"/>
-        <v>1.6657881536609462</v>
+        <v>4.4136443809237011</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="7"/>
-        <v>1.9820986886181622</v>
+        <v>3.8383205565788994</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="7"/>
@@ -4481,23 +4491,23 @@
       </c>
       <c r="M32" s="5">
         <f t="shared" si="7"/>
-        <v>0.96440348554638922</v>
+        <v>4.0016442642254404</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="7"/>
-        <v>1.2395323513680447</v>
+        <v>4.185508243267793</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" si="7"/>
-        <v>2.1265496612784394</v>
+        <v>4.6224042328686901</v>
       </c>
       <c r="P32" s="5">
         <f t="shared" si="7"/>
-        <v>2.0207927977554645</v>
+        <v>4.2577005993419981</v>
       </c>
       <c r="Q32" s="5">
         <f t="shared" si="7"/>
-        <v>2.0669780151630484</v>
+        <v>3.9267824580517892</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="7"/>
@@ -4505,135 +4515,135 @@
       </c>
       <c r="S32" s="5">
         <f t="shared" si="7"/>
-        <v>2.3183716072052323</v>
+        <v>3.773880427762268</v>
       </c>
       <c r="T32" s="5">
         <f t="shared" si="7"/>
-        <v>1.1519608109579038</v>
+        <v>5.0098065006186978</v>
       </c>
       <c r="U32" s="5">
         <f t="shared" si="7"/>
-        <v>2.2176252901228515</v>
+        <v>3.6948774382549732</v>
       </c>
       <c r="V32" s="5">
         <f t="shared" si="7"/>
-        <v>1.5464124958322141</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
+        <v>4.6308441296420675</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
-        <v>0.81473677881569317</v>
+        <v>1.518611225402092</v>
       </c>
       <c r="C33" s="4">
-        <v>0.41461854914072138</v>
+        <v>0.53824516019041535</v>
       </c>
       <c r="D33" s="4">
-        <v>0.80632778451266518</v>
+        <v>0.64417489845850151</v>
       </c>
       <c r="E33" s="4">
-        <v>0.15276176527374552</v>
+        <v>1.363540654118282</v>
       </c>
       <c r="F33" s="4">
-        <v>0.17435147019656005</v>
+        <v>0.93773044662810789</v>
       </c>
       <c r="G33" s="2">
         <v>451</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" ref="H33:V33" si="8">IF(H10="",0,MMULT($B33:$F33,H$19:H$23))</f>
-        <v>1.5188850510887517</v>
+        <v>3.3248838594131334</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="8"/>
-        <v>1.8836683813795654</v>
+        <v>5.0261752447148345</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="8"/>
-        <v>1.2831253994605154</v>
+        <v>3.9760107357527619</v>
       </c>
       <c r="K33" s="5">
         <f t="shared" si="8"/>
-        <v>1.4145731497421974</v>
+        <v>3.9629233572477638</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="8"/>
-        <v>1.5503292777188005</v>
+        <v>4.3794682350053993</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="8"/>
-        <v>0.89937885272499951</v>
+        <v>3.9924311477239716</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="8"/>
-        <v>1.1529933418380554</v>
+        <v>4.7024582837975224</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="8"/>
-        <v>1.5896321992025071</v>
+        <v>4.8971133731606109</v>
       </c>
       <c r="P33" s="5">
         <f t="shared" si="8"/>
-        <v>1.6557819737153767</v>
+        <v>3.3413463251466538</v>
       </c>
       <c r="Q33" s="5">
         <f t="shared" si="8"/>
-        <v>1.4169565804215103</v>
+        <v>4.0738980148936772</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="8"/>
-        <v>1.1993071748191639</v>
+        <v>4.5254351784676743</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" si="8"/>
-        <v>1.219364950267527</v>
+        <v>4.1659445174959808</v>
       </c>
       <c r="T33" s="5">
         <f t="shared" si="8"/>
-        <v>1.053916546894875</v>
+        <v>2.8554238699068586</v>
       </c>
       <c r="U33" s="5">
         <f t="shared" si="8"/>
-        <v>1.0858379399019502</v>
+        <v>4.3202007609883859</v>
       </c>
       <c r="V33" s="5">
         <f t="shared" si="8"/>
-        <v>0.91958024606249222</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.45">
+        <v>4.8659021562282412</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
-        <v>0.69782831077215757</v>
+        <v>0.99974446801971906</v>
       </c>
       <c r="C34" s="4">
-        <v>0.6099558877233805</v>
+        <v>0.68976131175371402</v>
       </c>
       <c r="D34" s="4">
-        <v>0.90385637282581777</v>
+        <v>0.41259242096114823</v>
       </c>
       <c r="E34" s="4">
-        <v>0.89321197331556312</v>
+        <v>0.75153016192662858</v>
       </c>
       <c r="F34" s="4">
-        <v>0.24445648896517158</v>
+        <v>1.024724240557213</v>
       </c>
       <c r="G34" s="2">
         <v>467</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" ref="H34:V34" si="9">IF(H11="",0,MMULT($B34:$F34,H$19:H$23))</f>
-        <v>1.6974251659265138</v>
+        <v>3.2161405385616719</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="9"/>
-        <v>2.3479443862106675</v>
+        <v>3.7184908457262891</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" si="9"/>
-        <v>1.4934314958540531</v>
+        <v>3.2895250969834073</v>
       </c>
       <c r="K34" s="5">
         <f t="shared" si="9"/>
-        <v>1.8392348278433346</v>
+        <v>2.7417885556606554</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="9"/>
@@ -4645,136 +4655,136 @@
       </c>
       <c r="N34" s="5">
         <f t="shared" si="9"/>
-        <v>1.4939206470815585</v>
+        <v>3.3470633367003222</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" si="9"/>
-        <v>2.3422392143084441</v>
+        <v>3.4932339829733108</v>
       </c>
       <c r="P34" s="5">
         <f t="shared" si="9"/>
-        <v>1.8882700418524043</v>
+        <v>3.2773931657918074</v>
       </c>
       <c r="Q34" s="5">
         <f t="shared" si="9"/>
-        <v>2.0833661594793424</v>
+        <v>3.2514929040688161</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="9"/>
-        <v>1.5930840867764537</v>
+        <v>3.5283625612513463</v>
       </c>
       <c r="S34" s="5">
         <f t="shared" si="9"/>
-        <v>1.8311750423082045</v>
+        <v>3.1864930682350052</v>
       </c>
       <c r="T34" s="5">
         <f t="shared" si="9"/>
-        <v>1.5568823585983675</v>
+        <v>2.7646201084573914</v>
       </c>
       <c r="U34" s="5">
         <f t="shared" si="9"/>
-        <v>1.8104845306308053</v>
+        <v>3.1832739096967009</v>
       </c>
       <c r="V34" s="5">
         <f t="shared" si="9"/>
-        <v>1.285554018331811</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
+        <v>3.4763023182176438</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
-        <v>0.49690192076528272</v>
+        <v>0.85640963805844594</v>
       </c>
       <c r="C35" s="4">
-        <v>0.27359095981818604</v>
+        <v>1.2888320444158179</v>
       </c>
       <c r="D35" s="4">
-        <v>0.73384171578026391</v>
+        <v>0.8045253803447685</v>
       </c>
       <c r="E35" s="4">
-        <v>0.44224924398435994</v>
+        <v>0.19358094603029108</v>
       </c>
       <c r="F35" s="4">
-        <v>0.83046973168220461</v>
+        <v>1.7875117214878651</v>
       </c>
       <c r="G35" s="2">
         <v>508</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" ref="H35:V35" si="10">IF(H12="",0,MMULT($B35:$F35,H$19:H$23))</f>
-        <v>1.1648103763341962</v>
+        <v>5.1559924415380802</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="10"/>
-        <v>2.100300743753813</v>
+        <v>4.7391635356246509</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" si="10"/>
-        <v>1.653249078048487</v>
+        <v>4.0411369316775732</v>
       </c>
       <c r="K35" s="5">
         <f t="shared" si="10"/>
-        <v>1.2780523803291197</v>
+        <v>2.7732108776902877</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="10"/>
-        <v>1.7929477507309577</v>
+        <v>4.625230241029783</v>
       </c>
       <c r="M35" s="5">
         <f t="shared" si="10"/>
-        <v>0.91987240474229837</v>
+        <v>2.4358133386252856</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="10"/>
-        <v>1.562084800126492</v>
+        <v>4.1975968933813546</v>
       </c>
       <c r="O35" s="5">
         <f t="shared" si="10"/>
-        <v>1.549303767121349</v>
+        <v>3.8571535052252566</v>
       </c>
       <c r="P35" s="5">
         <f t="shared" si="10"/>
-        <v>1.4676312010869799</v>
+        <v>5.2590957432246359</v>
       </c>
       <c r="Q35" s="5">
         <f t="shared" si="10"/>
-        <v>1.5889573992085209</v>
+        <v>4.4026477050164798</v>
       </c>
       <c r="R35" s="5">
         <f t="shared" si="10"/>
-        <v>1.5646463039322589</v>
+        <v>4.3567854459408233</v>
       </c>
       <c r="S35" s="5">
         <f t="shared" si="10"/>
-        <v>1.6000291407396876</v>
+        <v>3.9870933296255493</v>
       </c>
       <c r="T35" s="5">
         <f t="shared" si="10"/>
-        <v>1.1965665442159881</v>
+        <v>4.5445722015841357</v>
       </c>
       <c r="U35" s="5">
         <f t="shared" si="10"/>
-        <v>1.4266952945461862</v>
+        <v>3.6654442306596975</v>
       </c>
       <c r="V35" s="5">
         <f t="shared" si="10"/>
-        <v>0.93255229764485703</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
+        <v>4.1960385310528938</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
-        <v>0.15744453099172273</v>
+        <v>0.61300423840985951</v>
       </c>
       <c r="C36" s="4">
-        <v>0.21486310230826899</v>
+        <v>-8.5915705301294512E-2</v>
       </c>
       <c r="D36" s="4">
-        <v>0.74976952067554103</v>
+        <v>2.3982626031858225</v>
       </c>
       <c r="E36" s="4">
-        <v>0.47510468727097521</v>
+        <v>1.5714980751347403</v>
       </c>
       <c r="F36" s="4">
-        <v>0.97911714852009402</v>
+        <v>-0.17616803893436811</v>
       </c>
       <c r="G36" s="2">
         <v>546</v>
@@ -4785,19 +4795,19 @@
       </c>
       <c r="I36" s="5">
         <f t="shared" si="11"/>
-        <v>1.901610720645172</v>
+        <v>5.0515886160937615</v>
       </c>
       <c r="J36" s="5">
         <f t="shared" si="11"/>
-        <v>1.5602130793302709</v>
+        <v>2.3586893722072713</v>
       </c>
       <c r="K36" s="5">
         <f t="shared" si="11"/>
-        <v>0.99887840642680736</v>
+        <v>3.1133461109318459</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="11"/>
-        <v>1.6764214458658149</v>
+        <v>4.6654388761562293</v>
       </c>
       <c r="M36" s="5">
         <f t="shared" si="11"/>
@@ -4805,11 +4815,11 @@
       </c>
       <c r="N36" s="5">
         <f t="shared" si="11"/>
-        <v>1.6043063067628434</v>
+        <v>5.1761126652160785</v>
       </c>
       <c r="O36" s="5">
         <f t="shared" si="11"/>
-        <v>1.2736954233203048</v>
+        <v>4.8913248438661148</v>
       </c>
       <c r="P36" s="5">
         <f t="shared" si="11"/>
@@ -4817,75 +4827,75 @@
       </c>
       <c r="Q36" s="5">
         <f t="shared" si="11"/>
-        <v>1.4682278273065261</v>
+        <v>2.6374062851704685</v>
       </c>
       <c r="R36" s="5">
         <f t="shared" si="11"/>
-        <v>1.3917309817945189</v>
+        <v>2.3705146466733535</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" si="11"/>
-        <v>1.5114092353913908</v>
+        <v>2.8724151450980089</v>
       </c>
       <c r="T36" s="5">
         <f t="shared" si="11"/>
-        <v>1.1727619533241076</v>
+        <v>3.4922584256226279</v>
       </c>
       <c r="U36" s="5">
         <f t="shared" si="11"/>
-        <v>1.2632572491914862</v>
+        <v>2.9768223677959633</v>
       </c>
       <c r="V36" s="5">
         <f t="shared" si="11"/>
-        <v>0.79518983086341311</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
+        <v>5.3218706945376804</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
-        <v>0.91455628897639196</v>
+        <v>1.4454446988575682</v>
       </c>
       <c r="C37" s="4">
-        <v>0.74884908086363056</v>
+        <v>0.58742676786471593</v>
       </c>
       <c r="D37" s="4">
-        <v>0.75492288610767488</v>
+        <v>1.4012074298903896</v>
       </c>
       <c r="E37" s="4">
-        <v>0.23748542107569692</v>
+        <v>1.2891605728834352</v>
       </c>
       <c r="F37" s="4">
-        <v>5.6614738445942114E-2</v>
+        <v>-0.12567080638500888</v>
       </c>
       <c r="G37" s="2">
         <v>563</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" ref="H37:V37" si="12">IF(H14="",0,MMULT($B37:$F37,H$19:H$23))</f>
-        <v>1.8201085256254481</v>
+        <v>1.4366350084959278</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="12"/>
-        <v>2.0592300058102011</v>
+        <v>4.8111930377168939</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="12"/>
-        <v>1.3195567853679908</v>
+        <v>2.7139168231233062</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="12"/>
-        <v>1.7802113795282599</v>
+        <v>5.0565870688842507</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="12"/>
-        <v>1.7341637161047554</v>
+        <v>3.9274408816136428</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="12"/>
-        <v>1.008238431390623</v>
+        <v>5.4701977074055783</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="12"/>
-        <v>1.0943284802710802</v>
+        <v>4.8407701464852719</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="12"/>
@@ -4893,128 +4903,128 @@
       </c>
       <c r="P37" s="5">
         <f t="shared" si="12"/>
-        <v>2.0086759532195875</v>
+        <v>2.5323995514153119</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="12"/>
-        <v>1.6762284937419407</v>
+        <v>4.4348711289617322</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="12"/>
-        <v>1.2640371020301209</v>
+        <v>4.2913889322116496</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="12"/>
-        <v>1.5054946216744973</v>
+        <v>4.1547164902033824</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" si="12"/>
-        <v>1.1176770212038767</v>
+        <v>2.5005518417041381</v>
       </c>
       <c r="U37" s="5">
         <f t="shared" si="12"/>
-        <v>1.3224467038316789</v>
+        <v>4.1320515659560835</v>
       </c>
       <c r="V37" s="5">
         <f t="shared" si="12"/>
-        <v>1.2146412686465133</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.45">
+        <v>4.8717824198900139</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
-        <v>0.55264059126181653</v>
+        <v>0.6766874543544914</v>
       </c>
       <c r="C38" s="4">
-        <v>0.57919529389930124</v>
+        <v>0.95403571292172595</v>
       </c>
       <c r="D38" s="4">
-        <v>0.68388137749283651</v>
+        <v>1.528152833773301</v>
       </c>
       <c r="E38" s="4">
-        <v>0.93183248957451503</v>
+        <v>0.84353423124480587</v>
       </c>
       <c r="F38" s="4">
-        <v>0.66062173775307487</v>
+        <v>0.63808054849388229</v>
       </c>
       <c r="G38" s="2">
         <v>579</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" ref="H38:V38" si="13">IF(H15="",0,MMULT($B38:$F38,H$19:H$23))</f>
-        <v>1.4264685401352117</v>
+        <v>4.1928255185464902</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="13"/>
-        <v>2.3560281749116547</v>
+        <v>4.5348579460964329</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="13"/>
-        <v>1.6677550756958455</v>
+        <v>3.4277037400215873</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="13"/>
-        <v>1.7341810736619114</v>
+        <v>3.4260299371297931</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="13"/>
-        <v>2.2068735641096664</v>
+        <v>4.7351483633205937</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="13"/>
-        <v>1.1680125837762856</v>
+        <v>3.8088571022421673</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="13"/>
-        <v>1.5704862860795572</v>
+        <v>4.2375177894287237</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="13"/>
-        <v>2.1524420055060252</v>
+        <v>3.9945408435349994</v>
       </c>
       <c r="P38" s="5">
         <f t="shared" si="13"/>
-        <v>1.7808577522054956</v>
+        <v>3.8351945652186279</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="13"/>
-        <v>2.0540720545985329</v>
+        <v>3.8186067044262604</v>
       </c>
       <c r="R38" s="5">
         <f t="shared" si="13"/>
-        <v>1.7627670940251166</v>
+        <v>3.5771537370612787</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" si="13"/>
-        <v>2.0275069040182228</v>
+        <v>3.5235830937026655</v>
       </c>
       <c r="T38" s="5">
         <f t="shared" si="13"/>
-        <v>1.4499838226567041</v>
+        <v>4.4537958557392852</v>
       </c>
       <c r="U38" s="5">
         <f t="shared" si="13"/>
-        <v>1.9553219731862639</v>
+        <v>3.3205645990446344</v>
       </c>
       <c r="V38" s="5">
         <f t="shared" si="13"/>
-        <v>1.2917907781340177</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.45">
+        <v>4.4218791606081442</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
-        <v>0.93505372833970124</v>
+        <v>1.6995930951074014</v>
       </c>
       <c r="C39" s="4">
-        <v>0.24945380531864436</v>
+        <v>1.0020288877900414</v>
       </c>
       <c r="D39" s="4">
-        <v>0.46027357529213497</v>
+        <v>0.20239764804251933</v>
       </c>
       <c r="E39" s="4">
-        <v>0.15869917423709112</v>
+        <v>-0.2535092011354837</v>
       </c>
       <c r="F39" s="4">
-        <v>0.29628999308800363</v>
+        <v>2.0482987045803709</v>
       </c>
       <c r="G39" s="2">
         <v>623</v>
@@ -5025,15 +5035,15 @@
       </c>
       <c r="I39" s="5">
         <f t="shared" si="14"/>
-        <v>1.704028637268854</v>
+        <v>5.1379604670587433</v>
       </c>
       <c r="J39" s="5">
         <f t="shared" si="14"/>
-        <v>1.2511759357878689</v>
+        <v>3.0465563576527854</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" si="14"/>
-        <v>1.2856627899860125</v>
+        <v>3.2918688291346991</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="14"/>
@@ -5041,11 +5051,11 @@
       </c>
       <c r="M39" s="5">
         <f t="shared" si="14"/>
-        <v>0.64938707241385907</v>
+        <v>2.6159972250157693</v>
       </c>
       <c r="N39" s="5">
         <f t="shared" si="14"/>
-        <v>0.94553276606803249</v>
+        <v>4.876893650215683</v>
       </c>
       <c r="O39" s="5">
         <f t="shared" si="14"/>
@@ -5053,37 +5063,37 @@
       </c>
       <c r="P39" s="5">
         <f t="shared" si="14"/>
-        <v>1.5073563925047766</v>
+        <v>4.6949834816130238</v>
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="14"/>
-        <v>1.1983569560953653</v>
+        <v>5.2768348392694859</v>
       </c>
       <c r="R39" s="5">
         <f t="shared" si="14"/>
-        <v>1.3103103557937674</v>
+        <v>5.3295753905668342</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="14"/>
-        <v>1.1527847002829985</v>
+        <v>4.7470452850585163</v>
       </c>
       <c r="T39" s="5">
         <f t="shared" si="14"/>
-        <v>0.79242136565403276</v>
+        <v>2.0806654945948444</v>
       </c>
       <c r="U39" s="5">
         <f t="shared" si="14"/>
-        <v>1.157644096654677</v>
+        <v>4.4486359237995918</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" si="14"/>
-        <v>0.81454186322389277</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.45">
+        <v>4.3359983944267082</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="V41" s="5">
         <f>SQRT(SUMXMY2(H2:V16,H25:V39)/COUNT(H2:V16))</f>
-        <v>2.8060620616483134</v>
+        <v>0.39301547128657022</v>
       </c>
     </row>
   </sheetData>
@@ -5094,26 +5104,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA208"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.6640625" customWidth="1"/>
-    <col min="19" max="23" width="4.6640625" customWidth="1"/>
-    <col min="26" max="26" width="4.46484375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.7109375" customWidth="1"/>
+    <col min="19" max="23" width="4.7109375" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I1" s="50" t="s">
         <v>14</v>
       </c>
@@ -5134,7 +5144,7 @@
       <c r="V1" s="18"/>
       <c r="W1" s="19"/>
     </row>
-    <row r="2" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
@@ -5201,7 +5211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>38</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>2.8060620616483143</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5375,7 +5385,7 @@
       </c>
       <c r="Z4" s="53"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -5466,7 +5476,7 @@
       </c>
       <c r="Z5" s="53"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A18" si="8">A5+1</f>
         <v>3</v>
@@ -5557,7 +5567,7 @@
       </c>
       <c r="Z6" s="53"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -5648,7 +5658,7 @@
       </c>
       <c r="Z7" s="53"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -5739,7 +5749,7 @@
       </c>
       <c r="Z8" s="53"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -5830,7 +5840,7 @@
       </c>
       <c r="Z9" s="53"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="8"/>
         <v>7</v>
@@ -5921,7 +5931,7 @@
       </c>
       <c r="Z10" s="53"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -6012,7 +6022,7 @@
       </c>
       <c r="Z11" s="53"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -6103,7 +6113,7 @@
       </c>
       <c r="Z12" s="53"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -6194,7 +6204,7 @@
       </c>
       <c r="Z13" s="53"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="8"/>
         <v>11</v>
@@ -6285,7 +6295,7 @@
       </c>
       <c r="Z14" s="53"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="8"/>
         <v>12</v>
@@ -6376,7 +6386,7 @@
       </c>
       <c r="Z15" s="53"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="8"/>
         <v>13</v>
@@ -6467,7 +6477,7 @@
       </c>
       <c r="Z16" s="53"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="8"/>
         <v>14</v>
@@ -6558,7 +6568,7 @@
       </c>
       <c r="Z17" s="53"/>
     </row>
-    <row r="18" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="8"/>
         <v>15</v>
@@ -6649,7 +6659,7 @@
       </c>
       <c r="Z18" s="53"/>
     </row>
-    <row r="19" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -6722,7 +6732,7 @@
       </c>
       <c r="Z19" s="53"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>8</v>
       </c>
@@ -6798,7 +6808,7 @@
       </c>
       <c r="Z20" s="53"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>38</v>
       </c>
@@ -6878,7 +6888,7 @@
       </c>
       <c r="Z21" s="53"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6968,7 +6978,7 @@
       </c>
       <c r="Z22" s="53"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A22+1</f>
         <v>2</v>
@@ -7059,7 +7069,7 @@
       </c>
       <c r="Z23" s="53"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:A36" si="9">A23+1</f>
         <v>3</v>
@@ -7150,7 +7160,7 @@
       </c>
       <c r="Z24" s="53"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -7241,7 +7251,7 @@
       </c>
       <c r="Z25" s="53"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -7332,7 +7342,7 @@
       </c>
       <c r="Z26" s="53"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -7423,7 +7433,7 @@
       </c>
       <c r="Z27" s="53"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="9"/>
         <v>7</v>
@@ -7514,7 +7524,7 @@
       </c>
       <c r="Z28" s="53"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="9"/>
         <v>8</v>
@@ -7605,7 +7615,7 @@
       </c>
       <c r="Z29" s="53"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -7696,7 +7706,7 @@
       </c>
       <c r="Z30" s="53"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -7787,7 +7797,7 @@
       </c>
       <c r="Z31" s="53"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="9"/>
         <v>11</v>
@@ -7878,7 +7888,7 @@
       </c>
       <c r="Z32" s="53"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="9"/>
         <v>12</v>
@@ -7969,7 +7979,7 @@
       </c>
       <c r="Z33" s="53"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="9"/>
         <v>13</v>
@@ -8060,7 +8070,7 @@
       </c>
       <c r="Z34" s="53"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="9"/>
         <v>14</v>
@@ -8151,7 +8161,7 @@
       </c>
       <c r="Z35" s="53"/>
     </row>
-    <row r="36" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="9"/>
         <v>15</v>
@@ -8242,7 +8252,7 @@
       </c>
       <c r="Z36" s="53"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I37" s="20">
         <v>310</v>
       </c>
@@ -8310,7 +8320,7 @@
       </c>
       <c r="Z37" s="53"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I38" s="20">
         <v>379</v>
       </c>
@@ -8378,7 +8388,7 @@
       </c>
       <c r="Z38" s="53"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I39" s="20">
         <v>451</v>
       </c>
@@ -8446,7 +8456,7 @@
       </c>
       <c r="Z39" s="53"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I40" s="20">
         <v>467</v>
       </c>
@@ -8514,7 +8524,7 @@
       </c>
       <c r="Z40" s="53"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I41" s="20">
         <v>508</v>
       </c>
@@ -8582,7 +8592,7 @@
       </c>
       <c r="Z41" s="53"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I42" s="20">
         <v>563</v>
       </c>
@@ -8650,7 +8660,7 @@
       </c>
       <c r="Z42" s="53"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I43" s="20">
         <v>579</v>
       </c>
@@ -8718,7 +8728,7 @@
       </c>
       <c r="Z43" s="53"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I44" s="20">
         <v>623</v>
       </c>
@@ -8786,7 +8796,7 @@
       </c>
       <c r="Z44" s="53"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I45" s="20">
         <v>14</v>
       </c>
@@ -8854,7 +8864,7 @@
       </c>
       <c r="Z45" s="53"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I46" s="20">
         <v>29</v>
       </c>
@@ -8922,7 +8932,7 @@
       </c>
       <c r="Z46" s="53"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I47" s="20">
         <v>72</v>
       </c>
@@ -8990,7 +9000,7 @@
       </c>
       <c r="Z47" s="53"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I48" s="20">
         <v>211</v>
       </c>
@@ -9058,7 +9068,7 @@
       </c>
       <c r="Z48" s="53"/>
     </row>
-    <row r="49" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="49" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I49" s="20">
         <v>310</v>
       </c>
@@ -9126,7 +9136,7 @@
       </c>
       <c r="Z49" s="53"/>
     </row>
-    <row r="50" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="50" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I50" s="20">
         <v>379</v>
       </c>
@@ -9194,7 +9204,7 @@
       </c>
       <c r="Z50" s="53"/>
     </row>
-    <row r="51" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="51" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I51" s="20">
         <v>451</v>
       </c>
@@ -9262,7 +9272,7 @@
       </c>
       <c r="Z51" s="53"/>
     </row>
-    <row r="52" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="52" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I52" s="20">
         <v>467</v>
       </c>
@@ -9330,7 +9340,7 @@
       </c>
       <c r="Z52" s="53"/>
     </row>
-    <row r="53" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="53" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I53" s="20">
         <v>508</v>
       </c>
@@ -9398,7 +9408,7 @@
       </c>
       <c r="Z53" s="53"/>
     </row>
-    <row r="54" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="54" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I54" s="20">
         <v>546</v>
       </c>
@@ -9466,7 +9476,7 @@
       </c>
       <c r="Z54" s="53"/>
     </row>
-    <row r="55" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="55" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I55" s="20">
         <v>563</v>
       </c>
@@ -9534,7 +9544,7 @@
       </c>
       <c r="Z55" s="53"/>
     </row>
-    <row r="56" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="56" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I56" s="20">
         <v>579</v>
       </c>
@@ -9602,7 +9612,7 @@
       </c>
       <c r="Z56" s="53"/>
     </row>
-    <row r="57" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="57" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I57" s="20">
         <v>623</v>
       </c>
@@ -9670,7 +9680,7 @@
       </c>
       <c r="Z57" s="53"/>
     </row>
-    <row r="58" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="58" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I58" s="20">
         <v>14</v>
       </c>
@@ -9738,7 +9748,7 @@
       </c>
       <c r="Z58" s="53"/>
     </row>
-    <row r="59" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="59" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I59" s="20">
         <v>29</v>
       </c>
@@ -9806,7 +9816,7 @@
       </c>
       <c r="Z59" s="53"/>
     </row>
-    <row r="60" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="60" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I60" s="20">
         <v>72</v>
       </c>
@@ -9874,7 +9884,7 @@
       </c>
       <c r="Z60" s="53"/>
     </row>
-    <row r="61" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="61" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I61" s="20">
         <v>211</v>
       </c>
@@ -9942,7 +9952,7 @@
       </c>
       <c r="Z61" s="53"/>
     </row>
-    <row r="62" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="62" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I62" s="20">
         <v>293</v>
       </c>
@@ -10010,7 +10020,7 @@
       </c>
       <c r="Z62" s="53"/>
     </row>
-    <row r="63" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="63" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I63" s="20">
         <v>310</v>
       </c>
@@ -10078,7 +10088,7 @@
       </c>
       <c r="Z63" s="53"/>
     </row>
-    <row r="64" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="64" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I64" s="20">
         <v>379</v>
       </c>
@@ -10146,7 +10156,7 @@
       </c>
       <c r="Z64" s="53"/>
     </row>
-    <row r="65" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="65" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I65" s="20">
         <v>451</v>
       </c>
@@ -10214,7 +10224,7 @@
       </c>
       <c r="Z65" s="53"/>
     </row>
-    <row r="66" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="66" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I66" s="20">
         <v>467</v>
       </c>
@@ -10282,7 +10292,7 @@
       </c>
       <c r="Z66" s="53"/>
     </row>
-    <row r="67" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="67" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I67" s="20">
         <v>508</v>
       </c>
@@ -10350,7 +10360,7 @@
       </c>
       <c r="Z67" s="53"/>
     </row>
-    <row r="68" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="68" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I68" s="20">
         <v>546</v>
       </c>
@@ -10418,7 +10428,7 @@
       </c>
       <c r="Z68" s="53"/>
     </row>
-    <row r="69" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="69" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I69" s="20">
         <v>579</v>
       </c>
@@ -10486,7 +10496,7 @@
       </c>
       <c r="Z69" s="53"/>
     </row>
-    <row r="70" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="70" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I70" s="20">
         <v>14</v>
       </c>
@@ -10554,7 +10564,7 @@
       </c>
       <c r="Z70" s="53"/>
     </row>
-    <row r="71" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="71" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I71" s="20">
         <v>29</v>
       </c>
@@ -10622,7 +10632,7 @@
       </c>
       <c r="Z71" s="53"/>
     </row>
-    <row r="72" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="72" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I72" s="20">
         <v>72</v>
       </c>
@@ -10690,7 +10700,7 @@
       </c>
       <c r="Z72" s="53"/>
     </row>
-    <row r="73" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="73" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I73" s="20">
         <v>211</v>
       </c>
@@ -10758,7 +10768,7 @@
       </c>
       <c r="Z73" s="53"/>
     </row>
-    <row r="74" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="74" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I74" s="20">
         <v>212</v>
       </c>
@@ -10826,7 +10836,7 @@
       </c>
       <c r="Z74" s="53"/>
     </row>
-    <row r="75" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="75" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I75" s="20">
         <v>293</v>
       </c>
@@ -10894,7 +10904,7 @@
       </c>
       <c r="Z75" s="53"/>
     </row>
-    <row r="76" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="76" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I76" s="20">
         <v>310</v>
       </c>
@@ -10962,7 +10972,7 @@
       </c>
       <c r="Z76" s="53"/>
     </row>
-    <row r="77" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="77" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I77" s="20">
         <v>379</v>
       </c>
@@ -11030,7 +11040,7 @@
       </c>
       <c r="Z77" s="53"/>
     </row>
-    <row r="78" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="78" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I78" s="20">
         <v>451</v>
       </c>
@@ -11098,7 +11108,7 @@
       </c>
       <c r="Z78" s="53"/>
     </row>
-    <row r="79" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="79" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I79" s="20">
         <v>467</v>
       </c>
@@ -11166,7 +11176,7 @@
       </c>
       <c r="Z79" s="53"/>
     </row>
-    <row r="80" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="80" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I80" s="20">
         <v>508</v>
       </c>
@@ -11234,7 +11244,7 @@
       </c>
       <c r="Z80" s="53"/>
     </row>
-    <row r="81" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="81" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I81" s="20">
         <v>546</v>
       </c>
@@ -11302,7 +11312,7 @@
       </c>
       <c r="Z81" s="53"/>
     </row>
-    <row r="82" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="82" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I82" s="20">
         <v>563</v>
       </c>
@@ -11370,7 +11380,7 @@
       </c>
       <c r="Z82" s="53"/>
     </row>
-    <row r="83" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="83" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I83" s="20">
         <v>579</v>
       </c>
@@ -11438,7 +11448,7 @@
       </c>
       <c r="Z83" s="53"/>
     </row>
-    <row r="84" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="84" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I84" s="20">
         <v>623</v>
       </c>
@@ -11506,7 +11516,7 @@
       </c>
       <c r="Z84" s="53"/>
     </row>
-    <row r="85" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="85" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I85" s="20">
         <v>14</v>
       </c>
@@ -11574,7 +11584,7 @@
       </c>
       <c r="Z85" s="53"/>
     </row>
-    <row r="86" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="86" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I86" s="20">
         <v>29</v>
       </c>
@@ -11642,7 +11652,7 @@
       </c>
       <c r="Z86" s="53"/>
     </row>
-    <row r="87" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="87" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I87" s="20">
         <v>72</v>
       </c>
@@ -11710,7 +11720,7 @@
       </c>
       <c r="Z87" s="53"/>
     </row>
-    <row r="88" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="88" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I88" s="20">
         <v>211</v>
       </c>
@@ -11778,7 +11788,7 @@
       </c>
       <c r="Z88" s="53"/>
     </row>
-    <row r="89" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="89" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I89" s="20">
         <v>212</v>
       </c>
@@ -11846,7 +11856,7 @@
       </c>
       <c r="Z89" s="53"/>
     </row>
-    <row r="90" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="90" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I90" s="20">
         <v>293</v>
       </c>
@@ -11914,7 +11924,7 @@
       </c>
       <c r="Z90" s="53"/>
     </row>
-    <row r="91" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="91" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I91" s="20">
         <v>310</v>
       </c>
@@ -11982,7 +11992,7 @@
       </c>
       <c r="Z91" s="53"/>
     </row>
-    <row r="92" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="92" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I92" s="20">
         <v>379</v>
       </c>
@@ -12050,7 +12060,7 @@
       </c>
       <c r="Z92" s="53"/>
     </row>
-    <row r="93" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="93" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I93" s="20">
         <v>451</v>
       </c>
@@ -12118,7 +12128,7 @@
       </c>
       <c r="Z93" s="53"/>
     </row>
-    <row r="94" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="94" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I94" s="20">
         <v>467</v>
       </c>
@@ -12186,7 +12196,7 @@
       </c>
       <c r="Z94" s="53"/>
     </row>
-    <row r="95" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="95" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I95" s="20">
         <v>508</v>
       </c>
@@ -12254,7 +12264,7 @@
       </c>
       <c r="Z95" s="53"/>
     </row>
-    <row r="96" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="96" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I96" s="20">
         <v>546</v>
       </c>
@@ -12322,7 +12332,7 @@
       </c>
       <c r="Z96" s="53"/>
     </row>
-    <row r="97" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="97" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I97" s="20">
         <v>563</v>
       </c>
@@ -12390,7 +12400,7 @@
       </c>
       <c r="Z97" s="53"/>
     </row>
-    <row r="98" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="98" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I98" s="20">
         <v>579</v>
       </c>
@@ -12458,7 +12468,7 @@
       </c>
       <c r="Z98" s="53"/>
     </row>
-    <row r="99" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="99" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I99" s="20">
         <v>623</v>
       </c>
@@ -12526,7 +12536,7 @@
       </c>
       <c r="Z99" s="53"/>
     </row>
-    <row r="100" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="100" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I100" s="20">
         <v>14</v>
       </c>
@@ -12594,7 +12604,7 @@
       </c>
       <c r="Z100" s="53"/>
     </row>
-    <row r="101" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="101" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I101" s="20">
         <v>29</v>
       </c>
@@ -12662,7 +12672,7 @@
       </c>
       <c r="Z101" s="53"/>
     </row>
-    <row r="102" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="102" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I102" s="20">
         <v>72</v>
       </c>
@@ -12730,7 +12740,7 @@
       </c>
       <c r="Z102" s="53"/>
     </row>
-    <row r="103" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="103" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I103" s="20">
         <v>211</v>
       </c>
@@ -12798,7 +12808,7 @@
       </c>
       <c r="Z103" s="53"/>
     </row>
-    <row r="104" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="104" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I104" s="20">
         <v>293</v>
       </c>
@@ -12866,7 +12876,7 @@
       </c>
       <c r="Z104" s="53"/>
     </row>
-    <row r="105" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="105" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I105" s="20">
         <v>310</v>
       </c>
@@ -12934,7 +12944,7 @@
       </c>
       <c r="Z105" s="53"/>
     </row>
-    <row r="106" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="106" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I106" s="20">
         <v>451</v>
       </c>
@@ -13002,7 +13012,7 @@
       </c>
       <c r="Z106" s="53"/>
     </row>
-    <row r="107" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="107" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I107" s="20">
         <v>508</v>
       </c>
@@ -13070,7 +13080,7 @@
       </c>
       <c r="Z107" s="53"/>
     </row>
-    <row r="108" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="108" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I108" s="20">
         <v>546</v>
       </c>
@@ -13138,7 +13148,7 @@
       </c>
       <c r="Z108" s="53"/>
     </row>
-    <row r="109" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="109" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I109" s="20">
         <v>563</v>
       </c>
@@ -13206,7 +13216,7 @@
       </c>
       <c r="Z109" s="53"/>
     </row>
-    <row r="110" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="110" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I110" s="20">
         <v>579</v>
       </c>
@@ -13274,7 +13284,7 @@
       </c>
       <c r="Z110" s="53"/>
     </row>
-    <row r="111" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="111" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I111" s="20">
         <v>14</v>
       </c>
@@ -13342,7 +13352,7 @@
       </c>
       <c r="Z111" s="53"/>
     </row>
-    <row r="112" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="112" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I112" s="20">
         <v>29</v>
       </c>
@@ -13410,7 +13420,7 @@
       </c>
       <c r="Z112" s="53"/>
     </row>
-    <row r="113" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="113" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I113" s="20">
         <v>72</v>
       </c>
@@ -13478,7 +13488,7 @@
       </c>
       <c r="Z113" s="53"/>
     </row>
-    <row r="114" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="114" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I114" s="20">
         <v>211</v>
       </c>
@@ -13546,7 +13556,7 @@
       </c>
       <c r="Z114" s="53"/>
     </row>
-    <row r="115" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="115" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I115" s="20">
         <v>212</v>
       </c>
@@ -13614,7 +13624,7 @@
       </c>
       <c r="Z115" s="53"/>
     </row>
-    <row r="116" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="116" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I116" s="20">
         <v>293</v>
       </c>
@@ -13682,7 +13692,7 @@
       </c>
       <c r="Z116" s="53"/>
     </row>
-    <row r="117" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="117" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I117" s="20">
         <v>310</v>
       </c>
@@ -13750,7 +13760,7 @@
       </c>
       <c r="Z117" s="53"/>
     </row>
-    <row r="118" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="118" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I118" s="20">
         <v>379</v>
       </c>
@@ -13818,7 +13828,7 @@
       </c>
       <c r="Z118" s="53"/>
     </row>
-    <row r="119" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="119" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I119" s="20">
         <v>451</v>
       </c>
@@ -13886,7 +13896,7 @@
       </c>
       <c r="Z119" s="53"/>
     </row>
-    <row r="120" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="120" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I120" s="20">
         <v>508</v>
       </c>
@@ -13954,7 +13964,7 @@
       </c>
       <c r="Z120" s="53"/>
     </row>
-    <row r="121" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="121" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I121" s="20">
         <v>563</v>
       </c>
@@ -14022,7 +14032,7 @@
       </c>
       <c r="Z121" s="53"/>
     </row>
-    <row r="122" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="122" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I122" s="20">
         <v>579</v>
       </c>
@@ -14090,7 +14100,7 @@
       </c>
       <c r="Z122" s="53"/>
     </row>
-    <row r="123" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="123" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I123" s="20">
         <v>623</v>
       </c>
@@ -14158,7 +14168,7 @@
       </c>
       <c r="Z123" s="53"/>
     </row>
-    <row r="124" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="124" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I124" s="20">
         <v>14</v>
       </c>
@@ -14226,7 +14236,7 @@
       </c>
       <c r="Z124" s="53"/>
     </row>
-    <row r="125" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="125" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I125" s="20">
         <v>29</v>
       </c>
@@ -14294,7 +14304,7 @@
       </c>
       <c r="Z125" s="53"/>
     </row>
-    <row r="126" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="126" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I126" s="20">
         <v>72</v>
       </c>
@@ -14362,7 +14372,7 @@
       </c>
       <c r="Z126" s="53"/>
     </row>
-    <row r="127" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="127" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I127" s="20">
         <v>211</v>
       </c>
@@ -14430,7 +14440,7 @@
       </c>
       <c r="Z127" s="53"/>
     </row>
-    <row r="128" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="128" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I128" s="20">
         <v>212</v>
       </c>
@@ -14498,7 +14508,7 @@
       </c>
       <c r="Z128" s="53"/>
     </row>
-    <row r="129" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="129" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I129" s="20">
         <v>310</v>
       </c>
@@ -14566,7 +14576,7 @@
       </c>
       <c r="Z129" s="53"/>
     </row>
-    <row r="130" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="130" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I130" s="20">
         <v>379</v>
       </c>
@@ -14634,7 +14644,7 @@
       </c>
       <c r="Z130" s="53"/>
     </row>
-    <row r="131" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="131" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I131" s="20">
         <v>451</v>
       </c>
@@ -14702,7 +14712,7 @@
       </c>
       <c r="Z131" s="53"/>
     </row>
-    <row r="132" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="132" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I132" s="20">
         <v>467</v>
       </c>
@@ -14770,7 +14780,7 @@
       </c>
       <c r="Z132" s="53"/>
     </row>
-    <row r="133" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="133" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I133" s="20">
         <v>508</v>
       </c>
@@ -14838,7 +14848,7 @@
       </c>
       <c r="Z133" s="53"/>
     </row>
-    <row r="134" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="134" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I134" s="20">
         <v>546</v>
       </c>
@@ -14906,7 +14916,7 @@
       </c>
       <c r="Z134" s="53"/>
     </row>
-    <row r="135" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="135" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I135" s="20">
         <v>563</v>
       </c>
@@ -14974,7 +14984,7 @@
       </c>
       <c r="Z135" s="53"/>
     </row>
-    <row r="136" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="136" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I136" s="20">
         <v>579</v>
       </c>
@@ -15042,7 +15052,7 @@
       </c>
       <c r="Z136" s="53"/>
     </row>
-    <row r="137" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="137" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I137" s="20">
         <v>623</v>
       </c>
@@ -15110,7 +15120,7 @@
       </c>
       <c r="Z137" s="53"/>
     </row>
-    <row r="138" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="138" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I138" s="20">
         <v>14</v>
       </c>
@@ -15178,7 +15188,7 @@
       </c>
       <c r="Z138" s="53"/>
     </row>
-    <row r="139" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="139" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I139" s="20">
         <v>29</v>
       </c>
@@ -15246,7 +15256,7 @@
       </c>
       <c r="Z139" s="53"/>
     </row>
-    <row r="140" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="140" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I140" s="20">
         <v>72</v>
       </c>
@@ -15314,7 +15324,7 @@
       </c>
       <c r="Z140" s="53"/>
     </row>
-    <row r="141" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="141" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I141" s="20">
         <v>212</v>
       </c>
@@ -15382,7 +15392,7 @@
       </c>
       <c r="Z141" s="53"/>
     </row>
-    <row r="142" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="142" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I142" s="20">
         <v>310</v>
       </c>
@@ -15450,7 +15460,7 @@
       </c>
       <c r="Z142" s="53"/>
     </row>
-    <row r="143" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="143" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I143" s="20">
         <v>379</v>
       </c>
@@ -15518,7 +15528,7 @@
       </c>
       <c r="Z143" s="53"/>
     </row>
-    <row r="144" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="144" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I144" s="20">
         <v>451</v>
       </c>
@@ -15586,7 +15596,7 @@
       </c>
       <c r="Z144" s="53"/>
     </row>
-    <row r="145" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="145" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I145" s="20">
         <v>467</v>
       </c>
@@ -15654,7 +15664,7 @@
       </c>
       <c r="Z145" s="53"/>
     </row>
-    <row r="146" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="146" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I146" s="20">
         <v>508</v>
       </c>
@@ -15722,7 +15732,7 @@
       </c>
       <c r="Z146" s="53"/>
     </row>
-    <row r="147" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="147" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I147" s="20">
         <v>546</v>
       </c>
@@ -15790,7 +15800,7 @@
       </c>
       <c r="Z147" s="53"/>
     </row>
-    <row r="148" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="148" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I148" s="20">
         <v>563</v>
       </c>
@@ -15858,7 +15868,7 @@
       </c>
       <c r="Z148" s="53"/>
     </row>
-    <row r="149" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="149" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I149" s="20">
         <v>579</v>
       </c>
@@ -15926,7 +15936,7 @@
       </c>
       <c r="Z149" s="53"/>
     </row>
-    <row r="150" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="150" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I150" s="20">
         <v>623</v>
       </c>
@@ -15994,7 +16004,7 @@
       </c>
       <c r="Z150" s="53"/>
     </row>
-    <row r="151" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="151" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I151" s="20">
         <v>14</v>
       </c>
@@ -16062,7 +16072,7 @@
       </c>
       <c r="Z151" s="53"/>
     </row>
-    <row r="152" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="152" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I152" s="20">
         <v>29</v>
       </c>
@@ -16130,7 +16140,7 @@
       </c>
       <c r="Z152" s="53"/>
     </row>
-    <row r="153" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="153" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I153" s="20">
         <v>72</v>
       </c>
@@ -16198,7 +16208,7 @@
       </c>
       <c r="Z153" s="53"/>
     </row>
-    <row r="154" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="154" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I154" s="20">
         <v>212</v>
       </c>
@@ -16266,7 +16276,7 @@
       </c>
       <c r="Z154" s="53"/>
     </row>
-    <row r="155" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="155" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I155" s="20">
         <v>293</v>
       </c>
@@ -16334,7 +16344,7 @@
       </c>
       <c r="Z155" s="53"/>
     </row>
-    <row r="156" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="156" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I156" s="20">
         <v>310</v>
       </c>
@@ -16402,7 +16412,7 @@
       </c>
       <c r="Z156" s="53"/>
     </row>
-    <row r="157" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="157" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I157" s="20">
         <v>379</v>
       </c>
@@ -16470,7 +16480,7 @@
       </c>
       <c r="Z157" s="53"/>
     </row>
-    <row r="158" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="158" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I158" s="20">
         <v>451</v>
       </c>
@@ -16538,7 +16548,7 @@
       </c>
       <c r="Z158" s="53"/>
     </row>
-    <row r="159" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="159" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I159" s="20">
         <v>467</v>
       </c>
@@ -16606,7 +16616,7 @@
       </c>
       <c r="Z159" s="53"/>
     </row>
-    <row r="160" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="160" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I160" s="20">
         <v>508</v>
       </c>
@@ -16674,7 +16684,7 @@
       </c>
       <c r="Z160" s="53"/>
     </row>
-    <row r="161" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="161" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I161" s="20">
         <v>546</v>
       </c>
@@ -16742,7 +16752,7 @@
       </c>
       <c r="Z161" s="53"/>
     </row>
-    <row r="162" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="162" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I162" s="20">
         <v>563</v>
       </c>
@@ -16810,7 +16820,7 @@
       </c>
       <c r="Z162" s="53"/>
     </row>
-    <row r="163" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="163" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I163" s="20">
         <v>579</v>
       </c>
@@ -16878,7 +16888,7 @@
       </c>
       <c r="Z163" s="53"/>
     </row>
-    <row r="164" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="164" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I164" s="20">
         <v>623</v>
       </c>
@@ -16946,7 +16956,7 @@
       </c>
       <c r="Z164" s="53"/>
     </row>
-    <row r="165" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="165" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I165" s="20">
         <v>14</v>
       </c>
@@ -17014,7 +17024,7 @@
       </c>
       <c r="Z165" s="53"/>
     </row>
-    <row r="166" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="166" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I166" s="20">
         <v>29</v>
       </c>
@@ -17082,7 +17092,7 @@
       </c>
       <c r="Z166" s="53"/>
     </row>
-    <row r="167" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="167" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I167" s="20">
         <v>72</v>
       </c>
@@ -17150,7 +17160,7 @@
       </c>
       <c r="Z167" s="53"/>
     </row>
-    <row r="168" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="168" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I168" s="20">
         <v>211</v>
       </c>
@@ -17218,7 +17228,7 @@
       </c>
       <c r="Z168" s="53"/>
     </row>
-    <row r="169" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="169" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I169" s="20">
         <v>212</v>
       </c>
@@ -17286,7 +17296,7 @@
       </c>
       <c r="Z169" s="53"/>
     </row>
-    <row r="170" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="170" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I170" s="20">
         <v>293</v>
       </c>
@@ -17354,7 +17364,7 @@
       </c>
       <c r="Z170" s="53"/>
     </row>
-    <row r="171" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="171" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I171" s="20">
         <v>310</v>
       </c>
@@ -17422,7 +17432,7 @@
       </c>
       <c r="Z171" s="53"/>
     </row>
-    <row r="172" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="172" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I172" s="20">
         <v>451</v>
       </c>
@@ -17490,7 +17500,7 @@
       </c>
       <c r="Z172" s="53"/>
     </row>
-    <row r="173" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="173" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I173" s="20">
         <v>467</v>
       </c>
@@ -17558,7 +17568,7 @@
       </c>
       <c r="Z173" s="53"/>
     </row>
-    <row r="174" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="174" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I174" s="20">
         <v>508</v>
       </c>
@@ -17626,7 +17636,7 @@
       </c>
       <c r="Z174" s="53"/>
     </row>
-    <row r="175" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="175" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I175" s="20">
         <v>546</v>
       </c>
@@ -17694,7 +17704,7 @@
       </c>
       <c r="Z175" s="53"/>
     </row>
-    <row r="176" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="176" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I176" s="20">
         <v>563</v>
       </c>
@@ -17762,7 +17772,7 @@
       </c>
       <c r="Z176" s="53"/>
     </row>
-    <row r="177" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="177" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I177" s="20">
         <v>579</v>
       </c>
@@ -17830,7 +17840,7 @@
       </c>
       <c r="Z177" s="53"/>
     </row>
-    <row r="178" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="178" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I178" s="20">
         <v>623</v>
       </c>
@@ -17898,7 +17908,7 @@
       </c>
       <c r="Z178" s="53"/>
     </row>
-    <row r="179" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="179" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I179" s="20">
         <v>14</v>
       </c>
@@ -17966,7 +17976,7 @@
       </c>
       <c r="Z179" s="53"/>
     </row>
-    <row r="180" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="180" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I180" s="20">
         <v>29</v>
       </c>
@@ -18034,7 +18044,7 @@
       </c>
       <c r="Z180" s="53"/>
     </row>
-    <row r="181" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="181" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I181" s="20">
         <v>72</v>
       </c>
@@ -18102,7 +18112,7 @@
       </c>
       <c r="Z181" s="53"/>
     </row>
-    <row r="182" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="182" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I182" s="20">
         <v>211</v>
       </c>
@@ -18170,7 +18180,7 @@
       </c>
       <c r="Z182" s="53"/>
     </row>
-    <row r="183" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="183" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I183" s="20">
         <v>212</v>
       </c>
@@ -18238,7 +18248,7 @@
       </c>
       <c r="Z183" s="53"/>
     </row>
-    <row r="184" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="184" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I184" s="20">
         <v>293</v>
       </c>
@@ -18306,7 +18316,7 @@
       </c>
       <c r="Z184" s="53"/>
     </row>
-    <row r="185" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="185" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I185" s="20">
         <v>310</v>
       </c>
@@ -18374,7 +18384,7 @@
       </c>
       <c r="Z185" s="53"/>
     </row>
-    <row r="186" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="186" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I186" s="20">
         <v>379</v>
       </c>
@@ -18442,7 +18452,7 @@
       </c>
       <c r="Z186" s="53"/>
     </row>
-    <row r="187" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="187" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I187" s="20">
         <v>451</v>
       </c>
@@ -18510,7 +18520,7 @@
       </c>
       <c r="Z187" s="53"/>
     </row>
-    <row r="188" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="188" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I188" s="20">
         <v>467</v>
       </c>
@@ -18578,7 +18588,7 @@
       </c>
       <c r="Z188" s="53"/>
     </row>
-    <row r="189" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="189" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I189" s="20">
         <v>508</v>
       </c>
@@ -18646,7 +18656,7 @@
       </c>
       <c r="Z189" s="53"/>
     </row>
-    <row r="190" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="190" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I190" s="20">
         <v>546</v>
       </c>
@@ -18714,7 +18724,7 @@
       </c>
       <c r="Z190" s="53"/>
     </row>
-    <row r="191" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="191" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I191" s="20">
         <v>563</v>
       </c>
@@ -18782,7 +18792,7 @@
       </c>
       <c r="Z191" s="53"/>
     </row>
-    <row r="192" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="192" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I192" s="20">
         <v>579</v>
       </c>
@@ -18850,7 +18860,7 @@
       </c>
       <c r="Z192" s="53"/>
     </row>
-    <row r="193" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="193" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I193" s="20">
         <v>623</v>
       </c>
@@ -18918,7 +18928,7 @@
       </c>
       <c r="Z193" s="53"/>
     </row>
-    <row r="194" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="194" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I194" s="20">
         <v>14</v>
       </c>
@@ -18986,7 +18996,7 @@
       </c>
       <c r="Z194" s="53"/>
     </row>
-    <row r="195" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="195" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I195" s="20">
         <v>29</v>
       </c>
@@ -19054,7 +19064,7 @@
       </c>
       <c r="Z195" s="53"/>
     </row>
-    <row r="196" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="196" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I196" s="20">
         <v>72</v>
       </c>
@@ -19122,7 +19132,7 @@
       </c>
       <c r="Z196" s="53"/>
     </row>
-    <row r="197" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="197" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I197" s="20">
         <v>211</v>
       </c>
@@ -19190,7 +19200,7 @@
       </c>
       <c r="Z197" s="53"/>
     </row>
-    <row r="198" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="198" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I198" s="20">
         <v>212</v>
       </c>
@@ -19258,7 +19268,7 @@
       </c>
       <c r="Z198" s="53"/>
     </row>
-    <row r="199" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="199" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I199" s="20">
         <v>293</v>
       </c>
@@ -19326,7 +19336,7 @@
       </c>
       <c r="Z199" s="53"/>
     </row>
-    <row r="200" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="200" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I200" s="20">
         <v>310</v>
       </c>
@@ -19394,7 +19404,7 @@
       </c>
       <c r="Z200" s="53"/>
     </row>
-    <row r="201" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="201" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I201" s="20">
         <v>379</v>
       </c>
@@ -19462,7 +19472,7 @@
       </c>
       <c r="Z201" s="53"/>
     </row>
-    <row r="202" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="202" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I202" s="20">
         <v>451</v>
       </c>
@@ -19530,7 +19540,7 @@
       </c>
       <c r="Z202" s="53"/>
     </row>
-    <row r="203" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="203" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I203" s="20">
         <v>467</v>
       </c>
@@ -19598,7 +19608,7 @@
       </c>
       <c r="Z203" s="53"/>
     </row>
-    <row r="204" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="204" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I204" s="20">
         <v>508</v>
       </c>
@@ -19666,7 +19676,7 @@
       </c>
       <c r="Z204" s="53"/>
     </row>
-    <row r="205" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="205" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I205" s="20">
         <v>546</v>
       </c>
@@ -19734,7 +19744,7 @@
       </c>
       <c r="Z205" s="53"/>
     </row>
-    <row r="206" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="206" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I206" s="20">
         <v>563</v>
       </c>
@@ -19802,7 +19812,7 @@
       </c>
       <c r="Z206" s="53"/>
     </row>
-    <row r="207" spans="9:26" x14ac:dyDescent="0.45">
+    <row r="207" spans="9:26" x14ac:dyDescent="0.25">
       <c r="I207" s="20">
         <v>579</v>
       </c>
@@ -19870,7 +19880,7 @@
       </c>
       <c r="Z207" s="53"/>
     </row>
-    <row r="208" spans="9:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="9:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I208" s="58">
         <v>623</v>
       </c>
@@ -19945,23 +19955,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.06640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="22" width="5.9296875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="6" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20011,7 +20023,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="6:22" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -20064,7 +20076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G3" s="2">
         <v>29</v>
       </c>
@@ -20114,7 +20126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G4" s="2">
         <v>72</v>
       </c>
@@ -20164,7 +20176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G5" s="2">
         <v>211</v>
       </c>
@@ -20210,7 +20222,7 @@
       </c>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G6" s="2">
         <v>212</v>
       </c>
@@ -20254,7 +20266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G7" s="2">
         <v>293</v>
       </c>
@@ -20298,7 +20310,7 @@
       </c>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G8" s="2">
         <v>310</v>
       </c>
@@ -20348,7 +20360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G9" s="2">
         <v>379</v>
       </c>
@@ -20394,7 +20406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G10" s="2">
         <v>451</v>
       </c>
@@ -20444,7 +20456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G11" s="2">
         <v>467</v>
       </c>
@@ -20490,7 +20502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G12" s="2">
         <v>508</v>
       </c>
@@ -20540,7 +20552,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G13" s="2">
         <v>546</v>
       </c>
@@ -20584,7 +20596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G14" s="2">
         <v>563</v>
       </c>
@@ -20632,7 +20644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G15" s="2">
         <v>579</v>
       </c>
@@ -20682,7 +20694,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="6:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G16" s="2">
         <v>623</v>
       </c>
@@ -20726,293 +20738,293 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="19" spans="1:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="9">
-        <v>0.98543294650835767</v>
+        <v>-0.27627408529152486</v>
       </c>
       <c r="I19" s="10">
-        <v>0.31865891799888002</v>
+        <v>1.4924790503168239</v>
       </c>
       <c r="J19" s="10">
-        <v>0.14575768384368604</v>
+        <v>1.1555996253445129</v>
       </c>
       <c r="K19" s="10">
-        <v>0.99162471149205278</v>
+        <v>1.3504634041363899</v>
       </c>
       <c r="L19" s="10">
-        <v>0.21650235514445471</v>
+        <v>1.816940736821965</v>
       </c>
       <c r="M19" s="10">
-        <v>0.58075801150641004</v>
+        <v>0.93352825458312894</v>
       </c>
       <c r="N19" s="10">
-        <v>0.25097722631106023</v>
+        <v>1.0687419882987825</v>
       </c>
       <c r="O19" s="10">
-        <v>0.50551299604502864</v>
+        <v>-1.8780498399139429</v>
       </c>
       <c r="P19" s="10">
-        <v>0.14677211152404512</v>
+        <v>0.31483578912050691</v>
       </c>
       <c r="Q19" s="10">
-        <v>0.12850750223581608</v>
+        <v>1.6000699381097703</v>
       </c>
       <c r="R19" s="10">
-        <v>0.60973302526507234</v>
+        <v>1.8347938549241434</v>
       </c>
       <c r="S19" s="10">
-        <v>0.32486694877202482</v>
+        <v>0.14182859059291292</v>
       </c>
       <c r="T19" s="10">
-        <v>0.56788439739763785</v>
+        <v>2.05736201846288</v>
       </c>
       <c r="U19" s="10">
-        <v>4.5079422888432252E-2</v>
+        <v>0.48695801200189742</v>
       </c>
       <c r="V19" s="11">
-        <v>0.10720148741562197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+        <v>1.4568030574834392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H20" s="4">
-        <v>0.70887347964002279</v>
+        <v>-1.3680648375984803</v>
       </c>
       <c r="I20" s="4">
-        <v>0.92208169012260022</v>
+        <v>1.6650662773245086</v>
       </c>
       <c r="J20" s="4">
-        <v>0.67803256499882025</v>
+        <v>-0.23489653815750161</v>
       </c>
       <c r="K20" s="4">
-        <v>0.83084601139571868</v>
+        <v>1.8582655707949194</v>
       </c>
       <c r="L20" s="4">
-        <v>0.59932967115034896</v>
+        <v>-0.58422472615626808</v>
       </c>
       <c r="M20" s="4">
-        <v>0.18454370825562072</v>
+        <v>1.7496313434315873</v>
       </c>
       <c r="N20" s="4">
-        <v>0.25660936632964604</v>
+        <v>2.0398403017927209</v>
       </c>
       <c r="O20" s="4">
-        <v>0.90765891281653743</v>
+        <v>-0.66795085268113996</v>
       </c>
       <c r="P20" s="4">
-        <v>0.98846160233790925</v>
+        <v>-0.27103354065639224</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.52251153312610665</v>
+        <v>1.6812242610575159</v>
       </c>
       <c r="R20" s="4">
-        <v>0.90808989630693726</v>
+        <v>1.7588310868894332</v>
       </c>
       <c r="S20" s="4">
-        <v>0.52670576370113764</v>
+        <v>1.8731542509848746</v>
       </c>
       <c r="T20" s="4">
-        <v>0.22540308338638937</v>
+        <v>-2.4694836501343072</v>
       </c>
       <c r="U20" s="4">
-        <v>0.74768814373129733</v>
+        <v>1.8421654544089365</v>
       </c>
       <c r="V20" s="4">
-        <v>0.42820605638239884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+        <v>1.6150094855377954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H21" s="4">
-        <v>0.80732098050743839</v>
+        <v>0.65711342780332249</v>
       </c>
       <c r="I21" s="4">
-        <v>0.55325174186517134</v>
+        <v>-0.84797760530285526</v>
       </c>
       <c r="J21" s="4">
-        <v>0.27915924515202117</v>
+        <v>0.64341243971455364</v>
       </c>
       <c r="K21" s="4">
-        <v>0.87918207314730823</v>
+        <v>1.0221181174532299</v>
       </c>
       <c r="L21" s="4">
-        <v>0.49654136417949202</v>
+        <v>0.47127157900662175</v>
       </c>
       <c r="M21" s="4">
-        <v>0.30559562318963418</v>
+        <v>0.20176874668001288</v>
       </c>
       <c r="N21" s="4">
-        <v>7.5002112656580744E-2</v>
+        <v>-0.91986180824894481</v>
       </c>
       <c r="O21" s="4">
-        <v>0.46577743872948962</v>
+        <v>2.4404831396709956</v>
       </c>
       <c r="P21" s="4">
-        <v>0.93790945654705848</v>
+        <v>2.0147240559210338</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.70483803055583816</v>
+        <v>0.8625540112639668</v>
       </c>
       <c r="R21" s="4">
-        <v>0.10707685921898569</v>
+        <v>0.33984494820597716</v>
       </c>
       <c r="S21" s="4">
-        <v>0.87415712597855144</v>
+        <v>1.1462428167359642</v>
       </c>
       <c r="T21" s="4">
-        <v>0.19523037372604934</v>
+        <v>1.2341584294163714</v>
       </c>
       <c r="U21" s="4">
-        <v>0.4679861048768994</v>
+        <v>0.40613568800667155</v>
       </c>
       <c r="V21" s="4">
-        <v>0.80742452867520764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+        <v>-0.76256131780025238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H22" s="4">
-        <v>0.73595692274006186</v>
+        <v>1.1251874213640078</v>
       </c>
       <c r="I22" s="4">
-        <v>0.86446490687236854</v>
+        <v>1.2484887592134528</v>
       </c>
       <c r="J22" s="4">
-        <v>0.52913803665966974</v>
+        <v>-0.22475724629336771</v>
       </c>
       <c r="K22" s="4">
-        <v>0.33369737414270795</v>
+        <v>0.13510699150436534</v>
       </c>
       <c r="L22" s="4">
-        <v>0.80763402528493977</v>
+        <v>0.52464097319154546</v>
       </c>
       <c r="M22" s="4">
-        <v>0.67820043455746115</v>
+        <v>1.1189512537587121</v>
       </c>
       <c r="N22" s="4">
-        <v>0.91765238834609264</v>
+        <v>1.4706831021600546</v>
       </c>
       <c r="O22" s="4">
-        <v>0.60802374479101795</v>
+        <v>0.71781419833414239</v>
       </c>
       <c r="P22" s="4">
-        <v>0.4645090314715955</v>
+        <v>0.49492289935557082</v>
       </c>
       <c r="Q22" s="4">
-        <v>0.64434219349983601</v>
+        <v>0.29766614488151288</v>
       </c>
       <c r="R22" s="4">
-        <v>0.2378704938461359</v>
+        <v>5.2203562406655482E-2</v>
       </c>
       <c r="S22" s="4">
-        <v>0.24970204552226793</v>
+        <v>0.57888803627139429</v>
       </c>
       <c r="T22" s="4">
-        <v>0.82929794962267667</v>
+        <v>0.12489243503396667</v>
       </c>
       <c r="U22" s="4">
-        <v>5.1213853463865977E-2</v>
+        <v>0.51722766311096502</v>
       </c>
       <c r="V22" s="4">
-        <v>0.17370394356127128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+        <v>1.2287769059733866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H23" s="4">
-        <v>3.9224256210796504E-2</v>
+        <v>2.0781693980905542</v>
       </c>
       <c r="I23" s="4">
-        <v>0.43719998766225321</v>
+        <v>-1.9200718304280737E-3</v>
       </c>
       <c r="J23" s="4">
-        <v>0.15864237517561763</v>
+        <v>1.3278009463561589</v>
       </c>
       <c r="K23" s="4">
-        <v>0.40598126591759665</v>
+        <v>-9.4968432911450833E-3</v>
       </c>
       <c r="L23" s="4">
-        <v>0.73429166236685783</v>
+        <v>1.1632831288324805</v>
       </c>
       <c r="M23" s="4">
-        <v>0.39452317048392171</v>
+        <v>0.28903561732949962</v>
       </c>
       <c r="N23" s="4">
-        <v>0.2905017768425352</v>
+        <v>-0.21781447871350498</v>
       </c>
       <c r="O23" s="4">
-        <v>0.94457474857944312</v>
+        <v>2.5353877718156386</v>
       </c>
       <c r="P23" s="4">
-        <v>0.12450793631795276</v>
+        <v>0.94026535424427782</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.66980422533481132</v>
+        <v>-0.58697289552608989</v>
       </c>
       <c r="R23" s="4">
-        <v>0.53909003888148166</v>
+        <v>-0.30189809931610351</v>
       </c>
       <c r="S23" s="4">
-        <v>0.57026154541157914</v>
+        <v>0.15882540170690723</v>
       </c>
       <c r="T23" s="4">
-        <v>0.53281160278279249</v>
+        <v>1.2266506850737977</v>
       </c>
       <c r="U23" s="4">
-        <v>0.9110223307540235</v>
+        <v>0.27231825743904364</v>
       </c>
       <c r="V23" s="4">
-        <v>0.29870015708068542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+        <v>0.13789246953757872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>4.1267334493559793E-2</v>
+        <v>2.6214876879226034</v>
       </c>
       <c r="I24" s="4">
-        <v>0.79836760564861708</v>
+        <v>0.79157353245885709</v>
       </c>
       <c r="J24" s="4">
-        <v>0.94102756949451583</v>
+        <v>0.85783700034788835</v>
       </c>
       <c r="K24" s="4">
-        <v>0.24111796613871128</v>
+        <v>-1.2264658179580317</v>
       </c>
       <c r="L24" s="4">
-        <v>0.53207837601856678</v>
+        <v>0.97944885604648568</v>
       </c>
       <c r="M24" s="4">
-        <v>8.7173240154346687E-2</v>
+        <v>-0.90194845322666894</v>
       </c>
       <c r="N24" s="4">
-        <v>0.73713634034840836</v>
+        <v>0.5539584894149262</v>
       </c>
       <c r="O24" s="4">
-        <v>0.12875021542842269</v>
+        <v>2.4733024376253092</v>
       </c>
       <c r="P24" s="4">
-        <v>0.3900437621368037</v>
+        <v>1.0994643096570897</v>
       </c>
       <c r="Q24" s="4">
-        <v>0.44242131213666558</v>
+        <v>-0.24414838596206762</v>
       </c>
       <c r="R24" s="4">
-        <v>0.80815465087438321</v>
+        <v>-6.1352967781742575E-2</v>
       </c>
       <c r="S24" s="4">
-        <v>0.79919473013680231</v>
+        <v>9.206480299073129E-2</v>
       </c>
       <c r="T24" s="4">
-        <v>0.22510283988543101</v>
+        <v>1.200302651512783</v>
       </c>
       <c r="U24" s="4">
-        <v>0.58599252264810708</v>
+        <v>0.18527517172826102</v>
       </c>
       <c r="V24" s="4">
-        <v>0.28815103814999543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>0.40341337032198843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="2" t="s">
         <v>1</v>
       </c>
@@ -21062,1255 +21074,1255 @@
         <v>505</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>0.72006796783120608</v>
+        <v>1.3555383757032613</v>
       </c>
       <c r="B26" s="4">
-        <v>0.19116638616919113</v>
+        <v>-0.36582282544665162</v>
       </c>
       <c r="C26" s="4">
-        <v>0.63288592494215667</v>
+        <v>1.5180046854619609</v>
       </c>
       <c r="D26" s="4">
-        <v>0.31141248045021541</v>
+        <v>2.833701743226773</v>
       </c>
       <c r="E26" s="4">
-        <v>0.43529612082458324</v>
+        <v>-1.9378707187139721</v>
       </c>
       <c r="F26" s="4">
-        <v>0.51314918534897425</v>
+        <v>0.59143779992663237</v>
       </c>
       <c r="G26" s="2">
         <v>14</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" ref="H26:V26" si="0">IF(H2="",0,MMULT($B26:$F26,H$20:H$24))+H$19+$A26</f>
-        <v>2.6193924176298591</v>
+        <v>3.2889037399502401</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="0"/>
-        <v>2.434341456672624</v>
+        <v>4.9613963307545736</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="0"/>
-        <v>1.8888427735910602</v>
+        <v>0.87112726782814187</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="0"/>
-        <v>2.8313135534212308</v>
+        <v>3.2536642365146351</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="0"/>
-        <v>2.2095732633620564</v>
+        <v>3.9132611215240427</v>
       </c>
       <c r="M26" s="5">
         <f t="shared" si="0"/>
-        <v>1.9571790642002043</v>
+        <v>4.0325115016322552</v>
       </c>
       <c r="N26" s="5">
         <f t="shared" si="0"/>
-        <v>1.858051676340982</v>
+        <v>5.1989112474070689</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" si="0"/>
-        <v>2.3604627978252184</v>
+        <v>2.0101272185958119</v>
       </c>
       <c r="P26" s="5">
         <f t="shared" si="0"/>
-        <v>2.0483927758241038</v>
+        <v>5.0585009145155215</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="0"/>
-        <v>2.1137916981298321</v>
+        <v>5.4865152113062798</v>
       </c>
       <c r="R26" s="5">
         <f t="shared" si="0"/>
-        <v>2.29460823792374</v>
+        <v>3.7594802448560216</v>
       </c>
       <c r="S26" s="5">
         <f t="shared" si="0"/>
-        <v>2.434964191891742</v>
+        <v>3.9391898988768812</v>
       </c>
       <c r="T26" s="5">
         <f t="shared" si="0"/>
-        <v>2.0602963080165297</v>
+        <v>4.8764739845424758</v>
       </c>
       <c r="U26" s="5">
         <f t="shared" si="0"/>
-        <v>1.9174767553032543</v>
+        <v>2.8326361868488181</v>
       </c>
       <c r="V26" s="5">
         <f t="shared" si="0"/>
-        <v>1.7521167453122528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+        <v>4.5173258443410695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>0.12193981268180099</v>
+        <v>1.009041690541147</v>
       </c>
       <c r="B27" s="4">
-        <v>0.25247970905003203</v>
+        <v>1.3325169569581434</v>
       </c>
       <c r="C27" s="4">
-        <v>0.83490522957045965</v>
+        <v>0.36221003509601335</v>
       </c>
       <c r="D27" s="4">
-        <v>0.71476435674432515</v>
+        <v>-9.8421841074982433E-2</v>
       </c>
       <c r="E27" s="4">
-        <v>0.96203587548127156</v>
+        <v>1.5938430816783189</v>
       </c>
       <c r="F27" s="4">
-        <v>0.58509291322559598</v>
+        <v>0.86915915250255593</v>
       </c>
       <c r="G27" s="2">
         <v>29</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ref="H27:V27" si="1">IF(H3="",0,MMULT($B27:$F27,H$20:H$24))+H$19+$A27</f>
-        <v>2.5483015807481477</v>
+        <v>4.6278340059460241</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="1"/>
-        <v>2.6409284242690161</v>
+        <v>4.9751683168436012</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="1"/>
-        <v>1.7533757016768565</v>
+        <v>4.968712392408773</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="1"/>
-        <v>2.8275299388132522</v>
+        <v>4.1114689697551832</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="1"/>
-        <v>2.499323954395221</v>
+        <v>4.8719439423362356</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" si="1"/>
-        <v>1.9197381359920265</v>
+        <v>3.9136774668522385</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="1"/>
-        <v>1.8669969523326622</v>
+        <v>4.452290945258139</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="1"/>
-        <v>2.664137621023996</v>
+        <v>5.2449586117856688</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="1"/>
-        <v>1.9813513737818031</v>
+        <v>4.0980076362842226</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="1"/>
-        <v>2.3346299346600956</v>
+        <v>3.9847538407520728</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="1"/>
-        <v>2.2118370075435081</v>
+        <v>4.7709613826172337</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="1"/>
-        <v>2.5043209953029235</v>
+        <v>4.338247241990083</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="1"/>
-        <v>2.1467753436117736</v>
+        <v>3.2088500382859992</v>
       </c>
       <c r="U27" s="5">
         <f t="shared" si="1"/>
-        <v>2.0024214416697337</v>
+        <v>4.6419825128868197</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" si="1"/>
-        <v>1.5914903870679029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+        <v>4.7911358077576001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>0.48435968853521061</v>
+        <v>1.8000930492670379</v>
       </c>
       <c r="B28" s="4">
-        <v>0.2960607456149863</v>
+        <v>1.040975110399726</v>
       </c>
       <c r="C28" s="4">
-        <v>0.43690558422581305</v>
+        <v>0.70031460622139707</v>
       </c>
       <c r="D28" s="4">
-        <v>0.1884192420809051</v>
+        <v>-0.49402474288995329</v>
       </c>
       <c r="E28" s="4">
-        <v>7.7546787124316285E-4</v>
+        <v>0.43344748165619068</v>
       </c>
       <c r="F28" s="4">
-        <v>0.72383774333971329</v>
+        <v>1.3065085668153049</v>
       </c>
       <c r="G28" s="2">
         <v>72</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ref="H28:V28" si="2">IF(H4="",0,MMULT($B28:$F28,H$20:H$24))+H$19+$A28</f>
-        <v>2.200955007629648</v>
+        <v>4.3297866376440055</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="2"/>
-        <v>2.0588390378636627</v>
+        <v>4.8485945615531989</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="2"/>
-        <v>1.733796514430795</v>
+        <v>4.9691013612643564</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="2"/>
-        <v>2.3438049631985125</v>
+        <v>4.1275182304325755</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="2"/>
-        <v>1.6331233492911101</v>
+        <v>4.8636035994928584</v>
       </c>
       <c r="M28" s="5">
         <f t="shared" si="2"/>
-        <v>1.4444615155272145</v>
+        <v>3.0903343591461017</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" si="2"/>
-        <v>1.5507734644538789</v>
+        <v>4.2508518942971687</v>
       </c>
       <c r="O28" s="5">
         <f t="shared" si="2"/>
-        <v>1.6705857489805414</v>
+        <v>4.9115592787136553</v>
       </c>
       <c r="P28" s="5">
         <f t="shared" si="2"/>
-        <v>1.7035017462655873</v>
+        <v>4.8432413836037682</v>
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="2"/>
-        <v>1.5176771399644973</v>
+        <v>5.0338764489889352</v>
       </c>
       <c r="R28" s="5">
         <f t="shared" si="2"/>
-        <v>2.0399352272476534</v>
+        <v>5.4669796697519457</v>
       </c>
       <c r="S28" s="5">
         <f t="shared" si="2"/>
-        <v>1.9730658678803652</v>
+        <v>4.5977000908325989</v>
       </c>
       <c r="T28" s="5">
         <f t="shared" si="2"/>
-        <v>1.5238811324041115</v>
+        <v>4.189277621095683</v>
       </c>
       <c r="U28" s="5">
         <f t="shared" si="2"/>
-        <v>1.3897856125137609</v>
+        <v>4.5936982016588281</v>
       </c>
       <c r="V28" s="5">
         <f t="shared" si="2"/>
-        <v>1.3126398606620704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+        <v>4.3838339281711498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>0.66261912889244723</v>
+        <v>1.0573615821821962</v>
       </c>
       <c r="B29" s="4">
-        <v>1.5234780548209481E-2</v>
+        <v>0.27054904352746306</v>
       </c>
       <c r="C29" s="4">
-        <v>0.72262898121854457</v>
+        <v>0.44954244542286192</v>
       </c>
       <c r="D29" s="4">
-        <v>0.6877386777736082</v>
+        <v>0.8577574663894072</v>
       </c>
       <c r="E29" s="4">
-        <v>0.35476944354682138</v>
+        <v>0.9021615805303399</v>
       </c>
       <c r="F29" s="4">
-        <v>0.24638153472855184</v>
+        <v>0.58298087919217911</v>
       </c>
       <c r="G29" s="2">
         <v>211</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" ref="H29:V29" si="3">IF(H5="",0,MMULT($B29:$F29,H$20:H$24))+H$19+$A29</f>
-        <v>2.7724742626597187</v>
+        <v>5.0746189384999267</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="3"/>
-        <v>2.3414556860022495</v>
+        <v>4.1497613686667698</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="3"/>
-        <v>1.672477028640355</v>
+        <v>3.943857738292543</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="3"/>
-        <v>2.7351573960788498</v>
+        <v>2.7623776598664662</v>
       </c>
       <c r="L29" s="5">
         <f t="shared" si="3"/>
-        <v>2.1941070081955325</v>
+        <v>4.9985814694848161</v>
       </c>
       <c r="M29" s="5">
         <f t="shared" si="3"/>
-        <v>2.0948881896294882</v>
+        <v>3.2496814585976077</v>
       </c>
       <c r="N29" s="5">
         <f t="shared" si="3"/>
-        <v>1.8874874196203715</v>
+        <v>3.6523962507354844</v>
       </c>
       <c r="O29" s="5">
         <f t="shared" si="3"/>
-        <v>2.3035337652238628</v>
+        <v>4.4406269937478742</v>
       </c>
       <c r="P29" s="5">
         <f t="shared" si="3"/>
-        <v>1.9619428101977032</v>
+        <v>4.1183352452618465</v>
       </c>
       <c r="Q29" s="5">
         <f t="shared" si="3"/>
-        <v>0.79112663112826331</v>
+        <v>2.6574315202919667</v>
       </c>
       <c r="R29" s="5">
         <f t="shared" si="3"/>
-        <v>1.9175233413504609</v>
+        <v>3.2574297563616277</v>
       </c>
       <c r="S29" s="5">
         <f t="shared" si="3"/>
-        <v>2.19814954768349</v>
+        <v>2.9147587931800945</v>
       </c>
       <c r="T29" s="5">
         <f t="shared" si="3"/>
-        <v>2.1898433532200707</v>
+        <v>4.9149317940199717</v>
       </c>
       <c r="U29" s="5">
         <f t="shared" si="3"/>
-        <v>1.5600721090355125</v>
+        <v>3.0226337681554556</v>
       </c>
       <c r="V29" s="5">
         <f t="shared" si="3"/>
-        <v>0.76982061630806919</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+        <v>2.5141646396656352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>0.48539076634814105</v>
+        <v>0.38493260096391491</v>
       </c>
       <c r="B30" s="4">
-        <v>0.60438923001101774</v>
+        <v>0.13202248807260655</v>
       </c>
       <c r="C30" s="4">
-        <v>0.87465044808684067</v>
+        <v>1.9266798619326699</v>
       </c>
       <c r="D30" s="4">
-        <v>0.76171708240679092</v>
+        <v>1.6564338159041818</v>
       </c>
       <c r="E30" s="4">
-        <v>0.29799249902059644</v>
+        <v>-5.6173541446568817E-2</v>
       </c>
       <c r="F30" s="4">
-        <v>3.5005233984611639E-2</v>
+        <v>-0.31155513236099086</v>
       </c>
       <c r="G30" s="2">
         <v>212</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ref="H30:V30" si="4">IF(H6="",0,MMULT($B30:$F30,H$20:H$24))+H$19+$A30</f>
-        <v>3.1791069335390891</v>
+        <v>2.1244128158895057</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="4"/>
-        <v>0.80404968434702107</v>
+        <v>1.8774116512807388</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="4"/>
-        <v>1.7683793984937912</v>
+        <v>2.0350240866059188</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="4"/>
-        <v>3.1317496062012884</v>
+        <v>4.556464223733264</v>
       </c>
       <c r="L30" s="5">
         <f t="shared" si="4"/>
-        <v>0.70189312149259575</v>
+        <v>2.2018733377858801</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="4"/>
-        <v>2.0821876778076938</v>
+        <v>4.0564345302850189</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="4"/>
-        <v>1.7684230418696258</v>
+        <v>2.2264361825142287</v>
       </c>
       <c r="O30" s="5">
         <f t="shared" si="4"/>
-        <v>0.99090376239316968</v>
+        <v>-1.493117238950028</v>
       </c>
       <c r="P30" s="5">
         <f t="shared" si="4"/>
-        <v>2.454501819491691</v>
+        <v>4.9701593769792982</v>
       </c>
       <c r="Q30" s="5">
         <f t="shared" si="4"/>
-        <v>2.2520756632337164</v>
+        <v>4.470929689568611</v>
       </c>
       <c r="R30" s="5">
         <f t="shared" si="4"/>
-        <v>2.1077428168147199</v>
+        <v>3.2292493934402584</v>
       </c>
       <c r="S30" s="5">
         <f t="shared" si="4"/>
-        <v>2.2812869031477869</v>
+        <v>3.9037872999409799</v>
       </c>
       <c r="T30" s="5">
         <f t="shared" si="4"/>
-        <v>2.1586087468491617</v>
+        <v>4.2581057242495266</v>
       </c>
       <c r="U30" s="5">
         <f t="shared" si="4"/>
-        <v>1.7226902004564892</v>
+        <v>2.6813242111190929</v>
       </c>
       <c r="V30" s="5">
         <f t="shared" si="4"/>
-        <v>1.7890200701405652</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+        <v>2.4876978994111605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>0.6498180858069772</v>
+        <v>1.6509534144772591</v>
       </c>
       <c r="B31" s="4">
-        <v>0.73399911522134131</v>
+        <v>0.56791778757680023</v>
       </c>
       <c r="C31" s="4">
-        <v>0.69952859907524867</v>
+        <v>0.67858621085904014</v>
       </c>
       <c r="D31" s="4">
-        <v>0.43713443683946274</v>
+        <v>-0.17978801799907987</v>
       </c>
       <c r="E31" s="4">
-        <v>0.47080867927227443</v>
+        <v>0.3194143184176379</v>
       </c>
       <c r="F31" s="4">
-        <v>0.2897625199660725</v>
+        <v>0.56964099856695449</v>
       </c>
       <c r="G31" s="2">
         <v>293</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ref="H31:V31" si="5">IF(H7="",0,MMULT($B31:$F31,H$20:H$24))+H$19+$A31</f>
-        <v>3.07244461573067</v>
+        <v>2.9984477941950081</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="5"/>
-        <v>0.96847700380585722</v>
+        <v>3.143432464794083</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="5"/>
-        <v>2.0672001328240435</v>
+        <v>4.0629483466498986</v>
       </c>
       <c r="K31" s="5">
         <f t="shared" si="5"/>
-        <v>3.2731731053235547</v>
+        <v>4.0243848914854041</v>
       </c>
       <c r="L31" s="5">
         <f t="shared" si="5"/>
-        <v>2.5065046777985773</v>
+        <v>4.2910802838516835</v>
       </c>
       <c r="M31" s="5">
         <f t="shared" si="5"/>
-        <v>2.0872731296691818</v>
+        <v>3.0924071889813467</v>
       </c>
       <c r="N31" s="5">
         <f t="shared" si="5"/>
-        <v>0.90079531211803743</v>
+        <v>2.7196954027760416</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" si="5"/>
-        <v>2.8951856539629919</v>
+        <v>3.1393198458890961</v>
       </c>
       <c r="P31" s="5">
         <f t="shared" si="5"/>
-        <v>2.5529070014248685</v>
+        <v>4.0166813552250424</v>
       </c>
       <c r="Q31" s="5">
         <f t="shared" si="5"/>
-        <v>2.3801138700197275</v>
+        <v>4.4110564895664259</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" si="5"/>
-        <v>2.5929541985680635</v>
+        <v>4.5744675081971735</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" si="5"/>
-        <v>2.5819986358551148</v>
+        <v>3.6335020538703473</v>
       </c>
       <c r="T31" s="5">
         <f t="shared" si="5"/>
-        <v>2.1983107621321696</v>
+        <v>4.1964318642580274</v>
       </c>
       <c r="U31" s="5">
         <f t="shared" si="5"/>
-        <v>2.1921728383528367</v>
+        <v>3.5592393813370728</v>
       </c>
       <c r="V31" s="5">
         <f t="shared" si="5"/>
-        <v>0.75701957322259916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+        <v>3.1077564719606983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>0.36644785265338475</v>
+        <v>1.1167219019302121</v>
       </c>
       <c r="B32" s="4">
-        <v>0.22945716084719503</v>
+        <v>0.82576619690238906</v>
       </c>
       <c r="C32" s="4">
-        <v>0.81023909007570105</v>
+        <v>0.59978254778103957</v>
       </c>
       <c r="D32" s="4">
-        <v>0.35833840816792584</v>
+        <v>-0.16791815591996603</v>
       </c>
       <c r="E32" s="4">
-        <v>0.47140327642362567</v>
+        <v>2.0858375557328155</v>
       </c>
       <c r="F32" s="4">
-        <v>0.12055884454473664</v>
+        <v>-0.34305868840665332</v>
       </c>
       <c r="G32" s="2">
         <v>310</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" ref="H32:V32" si="6">IF(H8="",0,MMULT($B32:$F32,H$20:H$24))+H$19+$A32</f>
-        <v>2.4558471290770565</v>
+        <v>3.351331537447348</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="6"/>
-        <v>1.9570699665895916</v>
+        <v>2.9903491652036047</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="6"/>
-        <v>1.271814910259975</v>
+        <v>4.9772889252293151</v>
       </c>
       <c r="K32" s="5">
         <f t="shared" si="6"/>
-        <v>2.6010902021561999</v>
+        <v>4.9929807735372158</v>
       </c>
       <c r="L32" s="5">
         <f t="shared" si="6"/>
-        <v>1.822488456362406</v>
+        <v>4.7362045302652387</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="6"/>
-        <v>1.6766705436101312</v>
+        <v>4.3404643177555293</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="6"/>
-        <v>1.2917174700880967</v>
+        <v>2.4268577124197837</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" si="6"/>
-        <v>2.1362966433359434</v>
+        <v>4.4702451280452431</v>
       </c>
       <c r="P32" s="5">
         <f t="shared" si="6"/>
-        <v>1.7721285630257184</v>
+        <v>3.9170971459198647</v>
       </c>
       <c r="Q32" s="5">
         <f t="shared" si="6"/>
-        <v>1.7859149568310859</v>
+        <v>3.4318784119590209</v>
       </c>
       <c r="R32" s="5">
         <f t="shared" si="6"/>
-        <v>1.7081035999547092</v>
+        <v>3.9903034325216318</v>
       </c>
       <c r="S32" s="5">
         <f t="shared" si="6"/>
-        <v>1.975098472567856</v>
+        <v>3.6953289371554376</v>
       </c>
       <c r="T32" s="5">
         <f t="shared" si="6"/>
-        <v>1.7197124626873732</v>
+        <v>4.0009425914639047</v>
       </c>
       <c r="U32" s="5">
         <f t="shared" si="6"/>
-        <v>1.4807276937662737</v>
+        <v>3.7860704486720582</v>
       </c>
       <c r="V32" s="5">
         <f t="shared" si="6"/>
-        <v>1.4639033850007417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+        <v>3.3926671080357416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>0.68505221623907497</v>
+        <v>2.185743675404118</v>
       </c>
       <c r="B33" s="4">
-        <v>0.68397294881563286</v>
+        <v>0.4163841594662116</v>
       </c>
       <c r="C33" s="4">
-        <v>0.90480789774536852</v>
+        <v>4.3114570307619934E-2</v>
       </c>
       <c r="D33" s="4">
-        <v>0.1979778360916481</v>
+        <v>0.18642818979374279</v>
       </c>
       <c r="E33" s="4">
-        <v>0.91925443419950825</v>
+        <v>0.97836585322065228</v>
       </c>
       <c r="F33" s="4">
-        <v>0.74265244013530618</v>
+        <v>0.48486387493141847</v>
       </c>
       <c r="G33" s="2">
         <v>379</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" ref="H33:V33" si="7">IF(H9="",0,MMULT($B33:$F33,H$20:H$24))+H$19+$A33</f>
-        <v>3.0982133632629023</v>
+        <v>4.8822015345916325</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="7"/>
-        <v>3.3009291817511848</v>
+        <v>4.9496501348616553</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="7"/>
-        <v>2.4965980537437074</v>
+        <v>4.9443847452829228</v>
       </c>
       <c r="K33" s="5">
         <f t="shared" si="7"/>
-        <v>3.6587756163492897</v>
+        <v>3.7752550064377104</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="7"/>
-        <v>0.90155457138352968</v>
+        <v>4.002684412226083</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="7"/>
-        <v>2.230213713291874</v>
+        <v>3.9105542921578902</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="7"/>
-        <v>2.1755617939181797</v>
+        <v>4.3938524065195939</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="7"/>
-        <v>3.3171148735625429</v>
+        <v>3.9483626890473325</v>
       </c>
       <c r="P33" s="5">
         <f t="shared" si="7"/>
-        <v>2.8526171255185844</v>
+        <v>4.0198709747732071</v>
       </c>
       <c r="Q33" s="5">
         <f t="shared" si="7"/>
-        <v>2.8805377336379392</v>
+        <v>3.885877800219828</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="7"/>
-        <v>1.2947852415041474</v>
+        <v>4.0205375303282613</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" si="7"/>
-        <v>3.3282907722163322</v>
+        <v>3.4648930863280016</v>
       </c>
       <c r="T33" s="5">
         <f t="shared" si="7"/>
-        <v>2.4048974245946164</v>
+        <v>5.0734420396572695</v>
       </c>
       <c r="U33" s="5">
         <f t="shared" si="7"/>
-        <v>2.9477569292503585</v>
+        <v>3.9099465063374543</v>
       </c>
       <c r="V33" s="5">
         <f t="shared" si="7"/>
-        <v>2.3386661994869109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+        <v>4.841722104289274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>0.86778674769622932</v>
+        <v>0.13628642226237972</v>
       </c>
       <c r="B34" s="4">
-        <v>0.81473677881569317</v>
+        <v>1.4089802306888397</v>
       </c>
       <c r="C34" s="4">
-        <v>0.41461854914072138</v>
+        <v>0.64495510207666717</v>
       </c>
       <c r="D34" s="4">
-        <v>0.80632778451266518</v>
+        <v>0.77694618945053573</v>
       </c>
       <c r="E34" s="4">
-        <v>0.15276176527374552</v>
+        <v>1.5385322981659826</v>
       </c>
       <c r="F34" s="4">
-        <v>0.17435147019656005</v>
+        <v>0.58935312034317366</v>
       </c>
       <c r="G34" s="2">
         <v>451</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" ref="H34:V34" si="8">IF(H10="",0,MMULT($B34:$F34,H$20:H$24))+H$19+$A34</f>
-        <v>3.3721047452933384</v>
+        <v>3.972767452686214</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="8"/>
-        <v>3.0701140470746751</v>
+        <v>4.8614742799817705</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" si="8"/>
-        <v>2.2966698310004308</v>
+        <v>3.7497028731653597</v>
       </c>
       <c r="K34" s="5">
         <f t="shared" si="8"/>
-        <v>3.2739846089304798</v>
+        <v>4.1317677790705689</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="8"/>
-        <v>2.6346183805594845</v>
+        <v>4.208622789093301</v>
       </c>
       <c r="M34" s="5">
         <f t="shared" si="8"/>
-        <v>2.347923611927639</v>
+        <v>4.4476318434177333</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" si="8"/>
-        <v>2.2717573158453446</v>
+        <v>4.6198576889947471</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" si="8"/>
-        <v>2.9629319429437651</v>
+        <v>4.8072365789213505</v>
       </c>
       <c r="P34" s="5">
         <f t="shared" si="8"/>
-        <v>2.6703408329356515</v>
+        <v>3.8477776685670788</v>
       </c>
       <c r="Q34" s="5">
         <f t="shared" si="8"/>
-        <v>2.4132508303535554</v>
+        <v>3.8457809239237659</v>
       </c>
       <c r="R34" s="5">
         <f t="shared" si="8"/>
-        <v>2.6768269477804658</v>
+        <v>4.208344060325488</v>
       </c>
       <c r="S34" s="5">
         <f t="shared" si="8"/>
-        <v>2.4120186467357811</v>
+        <v>4.4050090175075258</v>
       </c>
       <c r="T34" s="5">
         <f t="shared" si="8"/>
-        <v>2.4895876919887421</v>
+        <v>2.2018500855692711</v>
       </c>
       <c r="U34" s="5">
         <f t="shared" si="8"/>
-        <v>1.9987041104866117</v>
+        <v>4.410779422262598</v>
       </c>
       <c r="V34" s="5">
         <f t="shared" si="8"/>
-        <v>1.8945684811743435</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+        <v>4.7813865861076437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>0.57549783406914157</v>
+        <v>0.17546886354102662</v>
       </c>
       <c r="B35" s="4">
-        <v>0.69782831077215757</v>
+        <v>0.90023359103545808</v>
       </c>
       <c r="C35" s="4">
-        <v>0.6099558877233805</v>
+        <v>0.60635340065937626</v>
       </c>
       <c r="D35" s="4">
-        <v>0.90385637282581777</v>
+        <v>0.35124530081728955</v>
       </c>
       <c r="E35" s="4">
-        <v>0.89321197331556312</v>
+        <v>0.83187332789608859</v>
       </c>
       <c r="F35" s="4">
-        <v>0.24445648896517158</v>
+        <v>0.80150966824334369</v>
       </c>
       <c r="G35" s="2">
         <v>467</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" ref="H35:V35" si="9">IF(H11="",0,MMULT($B35:$F35,H$20:H$24))+H$19+$A35</f>
-        <v>3.2583559465040133</v>
+        <v>3.2911980327614532</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="9"/>
-        <v>3.2421011382786893</v>
+        <v>3.7241047959922207</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" si="9"/>
-        <v>2.2146870137668806</v>
+        <v>3.2229239706650752</v>
       </c>
       <c r="K35" s="5">
         <f t="shared" si="9"/>
-        <v>3.4063573734045289</v>
+        <v>2.8751014663420218</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="9"/>
-        <v>0.79200018921359627</v>
+        <v>1.9924096003629916</v>
       </c>
       <c r="M35" s="5">
         <f t="shared" si="9"/>
-        <v>1.1562558455755516</v>
+        <v>1.1089971181241556</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="9"/>
-        <v>2.3203957074617603</v>
+        <v>3.3021618347183912</v>
       </c>
       <c r="O35" s="5">
         <f t="shared" si="9"/>
-        <v>3.4232500444226144</v>
+        <v>3.5195286233927607</v>
       </c>
       <c r="P35" s="5">
         <f t="shared" si="9"/>
-        <v>2.6105399874455912</v>
+        <v>3.3051982238480901</v>
       </c>
       <c r="Q35" s="5">
         <f t="shared" si="9"/>
-        <v>2.7873714957843001</v>
+        <v>3.2326253602821646</v>
       </c>
       <c r="R35" s="5">
         <f t="shared" si="9"/>
-        <v>2.7783149461106675</v>
+        <v>3.5177079664472259</v>
       </c>
       <c r="S35" s="5">
         <f t="shared" si="9"/>
-        <v>2.7315398251493712</v>
+        <v>3.1078472095846452</v>
       </c>
       <c r="T35" s="5">
         <f t="shared" si="9"/>
-        <v>2.7002645900651472</v>
+        <v>2.7843949567464827</v>
       </c>
       <c r="U35" s="5">
         <f t="shared" si="9"/>
-        <v>2.4310617875883791</v>
+        <v>3.1237757760076907</v>
       </c>
       <c r="V35" s="5">
         <f t="shared" si="9"/>
-        <v>1.9682533398165747</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
+        <v>3.4934269596007068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>0.78670480840309553</v>
+        <v>1.9057702996345767</v>
       </c>
       <c r="B36" s="4">
-        <v>0.49690192076528272</v>
+        <v>0.42019558191928408</v>
       </c>
       <c r="C36" s="4">
-        <v>0.27359095981818604</v>
+        <v>0.62176924853092475</v>
       </c>
       <c r="D36" s="4">
-        <v>0.73384171578026391</v>
+        <v>1.6234066558720273E-2</v>
       </c>
       <c r="E36" s="4">
-        <v>0.44224924398435994</v>
+        <v>-0.5491419338450455</v>
       </c>
       <c r="F36" s="4">
-        <v>0.83046973168220461</v>
+        <v>1.6666419992173551</v>
       </c>
       <c r="G36" s="2">
         <v>508</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" ref="H36:V36" si="10">IF(H12="",0,MMULT($B36:$F36,H$20:H$24))+H$19+$A36</f>
-        <v>2.9369481312456491</v>
+        <v>4.7093522224973263</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="10"/>
-        <v>3.2056644701557886</v>
+        <v>4.9112485811034805</v>
       </c>
       <c r="J36" s="5">
         <f t="shared" si="10"/>
-        <v>2.5857115702952687</v>
+        <v>4.0596287762971794</v>
       </c>
       <c r="K36" s="5">
         <f t="shared" si="10"/>
-        <v>3.056381900224268</v>
+        <v>2.6359193084200774</v>
       </c>
       <c r="L36" s="5">
         <f t="shared" si="10"/>
-        <v>2.796154914278508</v>
+        <v>4.7723446722849099</v>
       </c>
       <c r="M36" s="5">
         <f t="shared" si="10"/>
-        <v>2.2873352246518039</v>
+        <v>2.0561578947177863</v>
       </c>
       <c r="N36" s="5">
         <f t="shared" si="10"/>
-        <v>2.5997668348406475</v>
+        <v>4.3264391010096706</v>
       </c>
       <c r="O36" s="5">
         <f t="shared" si="10"/>
-        <v>2.8415215715694733</v>
+        <v>4.0059428490140601</v>
       </c>
       <c r="P36" s="5">
         <f t="shared" si="10"/>
-        <v>2.4011081210141203</v>
+        <v>4.6835213261139188</v>
       </c>
       <c r="Q36" s="5">
         <f t="shared" si="10"/>
-        <v>2.5041697098474325</v>
+        <v>4.668848612743755</v>
       </c>
       <c r="R36" s="5">
         <f t="shared" si="10"/>
-        <v>2.9610841376004267</v>
+        <v>4.7553012939826331</v>
       </c>
       <c r="S36" s="5">
         <f t="shared" si="10"/>
-        <v>2.7116008979148081</v>
+        <v>3.623007651528404</v>
       </c>
       <c r="T36" s="5">
         <f t="shared" si="10"/>
-        <v>2.5511557500167212</v>
+        <v>5.0217249514478413</v>
       </c>
       <c r="U36" s="5">
         <f t="shared" si="10"/>
-        <v>2.2584795258377137</v>
+        <v>3.586963494689031</v>
       </c>
       <c r="V36" s="5">
         <f t="shared" si="10"/>
-        <v>1.8264585934635744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+        <v>4.1836272048886247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>6.269063258942964E-2</v>
+        <v>-0.56566566500209026</v>
       </c>
       <c r="B37" s="4">
-        <v>0.15744453099172273</v>
+        <v>0.43316898447776997</v>
       </c>
       <c r="C37" s="4">
-        <v>0.21486310230826899</v>
+        <v>0.80534374447519208</v>
       </c>
       <c r="D37" s="4">
-        <v>0.74976952067554103</v>
+        <v>3.315255766568669</v>
       </c>
       <c r="E37" s="4">
-        <v>0.47510468727097521</v>
+        <v>1.5567050469218175</v>
       </c>
       <c r="F37" s="4">
-        <v>0.97911714852009402</v>
+        <v>-0.19143690284736994</v>
       </c>
       <c r="G37" s="2">
         <v>546</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" ref="H37:V37" si="11">IF(H13="",0,MMULT($B37:$F37,H$20:H$24))+H$19+$A37</f>
-        <v>1.0481235790977874</v>
+        <v>-0.84193975029361512</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="11"/>
-        <v>2.2829602712334816</v>
+        <v>4.9496891814056703</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="11"/>
-        <v>1.7686613957633865</v>
+        <v>2.1639972680465691</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="11"/>
-        <v>2.0531937505082896</v>
+        <v>3.0808184477767484</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="11"/>
-        <v>1.9556144335996992</v>
+        <v>4.7404477324909466</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="11"/>
-        <v>0.64344864409583968</v>
+        <v>0.36786258958103868</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="11"/>
-        <v>1.9179741656633333</v>
+        <v>5.0764365616718079</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="11"/>
-        <v>1.8418990519547631</v>
+        <v>5.0854839747557898</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="11"/>
-        <v>0.20946274411347476</v>
+        <v>-0.25082987588158334</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="11"/>
-        <v>1.6594259621317717</v>
+        <v>2.5771457014954593</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="11"/>
-        <v>2.0641546396490211</v>
+        <v>2.0195383574023018</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="11"/>
-        <v>1.8989668167528453</v>
+        <v>3.459456336485172</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" si="11"/>
-        <v>1.803336983311175</v>
+        <v>3.5097158549960112</v>
       </c>
       <c r="U37" s="5">
         <f t="shared" si="11"/>
-        <v>1.3710273046693482</v>
+        <v>3.1495328153020616</v>
       </c>
       <c r="V37" s="5">
         <f t="shared" si="11"/>
-        <v>0.96508195086846471</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+        <v>5.1877248446192077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>0.97170420996041473</v>
+        <v>2.6948748857787153</v>
       </c>
       <c r="B38" s="4">
-        <v>0.91455628897639196</v>
+        <v>0.31669577757092532</v>
       </c>
       <c r="C38" s="4">
-        <v>0.74884908086363056</v>
+        <v>-0.27859933096238698</v>
       </c>
       <c r="D38" s="4">
-        <v>0.75492288610767488</v>
+        <v>0.37869861183068743</v>
       </c>
       <c r="E38" s="4">
-        <v>0.23748542107569692</v>
+        <v>-2.4498738115685547E-2</v>
       </c>
       <c r="F38" s="4">
-        <v>5.6614738445942114E-2</v>
+        <v>-0.47652221495653047</v>
       </c>
       <c r="G38" s="2">
         <v>563</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" ref="H38:V38" si="12">IF(H14="",0,MMULT($B38:$F38,H$20:H$24))+H$19+$A38</f>
-        <v>3.7772456820942204</v>
+        <v>0.9282663487699867</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="12"/>
-        <v>3.349593133769496</v>
+        <v>5.0465650153574426</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="12"/>
-        <v>2.4370186791720916</v>
+        <v>3.0704064017832007</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="12"/>
-        <v>3.7435403009807273</v>
+        <v>4.9849174250541504</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="12"/>
-        <v>2.9223702812096248</v>
+        <v>3.8989508732711933</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="12"/>
-        <v>2.5607006528574479</v>
+        <v>4.9727541146159613</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="12"/>
-        <v>2.3170099165425553</v>
+        <v>4.9642068716629559</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="12"/>
-        <v>1.4772172060054434</v>
+        <v>0.81682504586477234</v>
       </c>
       <c r="P38" s="5">
         <f t="shared" si="12"/>
-        <v>3.1271522747040472</v>
+        <v>2.0030468551126601</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="12"/>
-        <v>2.7764402059381714</v>
+        <v>4.8305224588189617</v>
       </c>
       <c r="R38" s="5">
         <f t="shared" si="12"/>
-        <v>2.8454743372556077</v>
+        <v>5.0484041353703892</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" si="12"/>
-        <v>2.8020657804069371</v>
+        <v>3.2820431865126394</v>
       </c>
       <c r="T38" s="5">
         <f t="shared" si="12"/>
-        <v>2.6572656285619294</v>
+        <v>3.0716004664920327</v>
       </c>
       <c r="U38" s="5">
         <f t="shared" si="12"/>
-        <v>2.3392303366805258</v>
+        <v>3.7530039969593716</v>
       </c>
       <c r="V38" s="5">
         <f t="shared" si="12"/>
-        <v>2.29354696602255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+        <v>5.1453161852994027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>0.19944306216056973</v>
+        <v>0.97695068152236386</v>
       </c>
       <c r="B39" s="4">
-        <v>0.55264059126181653</v>
+        <v>0.39707959550560556</v>
       </c>
       <c r="C39" s="4">
-        <v>0.57919529389930124</v>
+        <v>0.59968531665116975</v>
       </c>
       <c r="D39" s="4">
-        <v>0.68388137749283651</v>
+        <v>1.2984429402622486</v>
       </c>
       <c r="E39" s="4">
-        <v>0.93183248957451503</v>
+        <v>0.72236590339605722</v>
       </c>
       <c r="F39" s="4">
-        <v>0.66062173775307487</v>
+        <v>0.34604492348924737</v>
       </c>
       <c r="G39" s="2">
         <v>579</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" ref="H39:V39" si="13">IF(H15="",0,MMULT($B39:$F39,H$20:H$24))+H$19+$A39</f>
-        <v>2.6113445488041389</v>
+        <v>4.4208501227186483</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="13"/>
-        <v>2.8741301550711045</v>
+        <v>4.5156982804310335</v>
       </c>
       <c r="J39" s="5">
         <f t="shared" si="13"/>
-        <v>2.0129558217001011</v>
+        <v>3.3892964867310829</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" si="13"/>
-        <v>2.9252488473145339</v>
+        <v>3.4223989071498626</v>
       </c>
       <c r="L39" s="5">
         <f t="shared" si="13"/>
-        <v>2.6228189814146905</v>
+        <v>4.7049880870126888</v>
       </c>
       <c r="M39" s="5">
         <f t="shared" si="13"/>
-        <v>1.9482136574432651</v>
+        <v>4.0757887442607341</v>
       </c>
       <c r="N39" s="5">
         <f t="shared" si="13"/>
-        <v>2.0209065745511872</v>
+        <v>4.2479948737578379</v>
       </c>
       <c r="O39" s="5">
         <f t="shared" si="13"/>
-        <v>2.8573980637116234</v>
+        <v>3.9165853008913243</v>
       </c>
       <c r="P39" s="5">
         <f t="shared" si="13"/>
-        <v>2.1270729258901104</v>
+        <v>4.0946738349978045</v>
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="13"/>
-        <v>2.3820226189949185</v>
+        <v>3.6398684334311411</v>
       </c>
       <c r="R39" s="5">
         <f t="shared" si="13"/>
-        <v>2.5719431814507585</v>
+        <v>3.5424120691440102</v>
       </c>
       <c r="S39" s="5">
         <f t="shared" si="13"/>
-        <v>2.551816914950817</v>
+        <v>3.4481972873214923</v>
       </c>
       <c r="T39" s="5">
         <f t="shared" si="13"/>
-        <v>2.2173112822149115</v>
+        <v>4.257452789667898</v>
       </c>
       <c r="U39" s="5">
         <f t="shared" si="13"/>
-        <v>2.1998444582352659</v>
+        <v>3.3713661800271146</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" si="13"/>
-        <v>1.5984353277102095</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>4.452448892844961</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
-        <v>0.29771639311389941</v>
+        <v>-0.31619472264526383</v>
       </c>
       <c r="B40" s="4">
-        <v>0.93505372833970124</v>
+        <v>1.6897659216726226</v>
       </c>
       <c r="C40" s="4">
-        <v>0.24945380531864436</v>
+        <v>1.4357619077942929</v>
       </c>
       <c r="D40" s="4">
-        <v>0.46027357529213497</v>
+        <v>0.60687884999300268</v>
       </c>
       <c r="E40" s="4">
-        <v>0.15869917423709112</v>
+        <v>9.2261059903375131E-2</v>
       </c>
       <c r="F40" s="4">
-        <v>0.29628999308800363</v>
+        <v>2.0041313850998055</v>
       </c>
       <c r="G40" s="2">
         <v>623</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" ref="H40:V40" si="14">IF(H16="",0,MMULT($B40:$F40,H$20:H$24))+H$19+$A40</f>
-        <v>1.2831493396222571</v>
+        <v>-0.59246880793678869</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="14"/>
-        <v>2.3204039483816334</v>
+        <v>5.1162842706379479</v>
       </c>
       <c r="J40" s="5">
         <f t="shared" si="14"/>
-        <v>1.6946500127454542</v>
+        <v>3.0715937685354646</v>
       </c>
       <c r="K40" s="5">
         <f t="shared" si="14"/>
-        <v>2.5750038945919647</v>
+        <v>3.2649395230242764</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" si="14"/>
-        <v>0.51421874825835412</v>
+        <v>1.5007460141767011</v>
       </c>
       <c r="M40" s="5">
         <f t="shared" si="14"/>
-        <v>1.5278614770341687</v>
+        <v>2.7616042118555795</v>
       </c>
       <c r="N40" s="5">
         <f t="shared" si="14"/>
-        <v>1.494226385492992</v>
+        <v>4.8613336183122016</v>
       </c>
       <c r="O40" s="5">
         <f t="shared" si="14"/>
-        <v>0.80322938915892805</v>
+        <v>-2.1942445625592066</v>
       </c>
       <c r="P40" s="5">
         <f t="shared" si="14"/>
-        <v>1.9518448971427214</v>
+        <v>5.023900928002015</v>
       </c>
       <c r="Q40" s="5">
         <f t="shared" si="14"/>
-        <v>1.624580851445081</v>
+        <v>5.0003599745604195</v>
       </c>
       <c r="R40" s="5">
         <f t="shared" si="14"/>
-        <v>2.2177597741727393</v>
+        <v>4.8594167870662925</v>
       </c>
       <c r="S40" s="5">
         <f t="shared" si="14"/>
-        <v>1.7753680421689229</v>
+        <v>5.1870361274153334</v>
       </c>
       <c r="T40" s="5">
         <f t="shared" si="14"/>
-        <v>1.6580221561655701</v>
+        <v>1.9348065260298362</v>
       </c>
       <c r="U40" s="5">
         <f t="shared" si="14"/>
-        <v>1.5004399126570087</v>
+        <v>4.5770405335113047</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="14"/>
-        <v>1.219459743753414</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+        <v>4.3416740518414638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V42" s="5">
-        <f>SQRT(SUMXMY2(H2:V16,H26:V40))</f>
-        <v>28.963803378204645</v>
+        <f>SQRT(SUMXMY2(H2:V16,H26:V40)/COUNT(H2:V16))</f>
+        <v>0.31865497084828598</v>
       </c>
     </row>
   </sheetData>
@@ -22320,28 +22332,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="4.59765625" customWidth="1"/>
-    <col min="8" max="8" width="5.59765625" customWidth="1"/>
-    <col min="11" max="15" width="4.796875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
@@ -22370,7 +22382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
@@ -22411,7 +22423,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -22462,7 +22474,7 @@
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -22514,7 +22526,7 @@
         <v>0.4735724122574797</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A17" si="3">A5+1</f>
         <v>3</v>
@@ -22566,7 +22578,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -22618,7 +22630,7 @@
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -22670,7 +22682,7 @@
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -22722,7 +22734,7 @@
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -22774,7 +22786,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -22826,7 +22838,7 @@
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -22878,7 +22890,7 @@
         <v>9.4050801405122342E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -22930,7 +22942,7 @@
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -22982,7 +22994,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -23034,7 +23046,7 @@
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -23086,7 +23098,7 @@
         <v>9.4050801405122342E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -23138,7 +23150,7 @@
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>18</v>
       </c>
@@ -23167,7 +23179,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>19</v>
       </c>
@@ -23196,7 +23208,7 @@
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>18</v>
       </c>
@@ -23225,7 +23237,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>23</v>
       </c>
@@ -23254,7 +23266,7 @@
         <v>0.25177752293467814</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>24</v>
       </c>
@@ -23283,7 +23295,7 @@
         <v>0.55359253248937768</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>25</v>
       </c>
@@ -23312,7 +23324,7 @@
         <v>0.88310751344614902</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="63" t="s">
         <v>44</v>
       </c>
@@ -23344,7 +23356,7 @@
         <v>9.4050801405122342E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -23394,7 +23406,7 @@
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -23444,7 +23456,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -23494,7 +23506,7 @@
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -23544,7 +23556,7 @@
         <v>0.25177752293467814</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -23594,7 +23606,7 @@
         <v>0.90610742917467313</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -23644,7 +23656,7 @@
         <v>0.88310751344614902</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -23694,7 +23706,7 @@
         <v>0.30074448486092797</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -23744,7 +23756,7 @@
         <v>0.34443488792983934</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -23794,7 +23806,7 @@
         <v>0.69994006736215331</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -23844,7 +23856,7 @@
         <v>0.4798617159078773</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -23894,7 +23906,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -23944,7 +23956,7 @@
         <v>0.25177752293467814</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -23994,7 +24006,7 @@
         <v>0.55359253248937768</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -24044,7 +24056,7 @@
         <v>0.88310751344614902</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -24094,7 +24106,7 @@
         <v>0.23181135090309624</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>21</v>
       </c>
@@ -24123,7 +24135,7 @@
         <v>0.85110321563536828</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>18</v>
       </c>
@@ -24152,7 +24164,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>19</v>
       </c>
@@ -24181,7 +24193,7 @@
         <v>0.53397663344883051</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>18</v>
       </c>
@@ -24210,7 +24222,7 @@
         <v>0.10001791494791945</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>23</v>
       </c>
@@ -24239,7 +24251,7 @@
         <v>0.25177752293467814</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>24</v>
       </c>
@@ -24268,7 +24280,7 @@
         <v>0.55359253248937768</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
         <v>25</v>
       </c>
@@ -24297,7 +24309,7 @@
         <v>0.88310751344614902</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
         <v>29</v>
       </c>
@@ -24326,7 +24338,7 @@
         <v>0.30074448486092797</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
         <v>30</v>
       </c>
@@ -24355,7 +24367,7 @@
         <v>0.34443488792983934</v>
       </c>
     </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
         <v>31</v>
       </c>
@@ -24384,7 +24396,7 @@
         <v>0.69994006736215331</v>
       </c>
     </row>
-    <row r="50" spans="9:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
         <v>32</v>
       </c>
